--- a/CALL SHEET TEMPLATE.xlsx
+++ b/CALL SHEET TEMPLATE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad51867376d94122/Chapman/19-20/1stSemester/Visual/Final_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dockt\OneDrive\Chapman\19-20\1stSemester\Visual\Final_Project\InProduction(Framework)\Dodge-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="303" documentId="8_{4ED815C2-791F-4E41-A743-07FC2796471C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D161B72A-FCC9-40EA-93E7-9A6B934FC92A}"/>
+  <xr:revisionPtr revIDLastSave="305" documentId="8_{4ED815C2-791F-4E41-A743-07FC2796471C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A61707D8-D282-4598-B546-4343D967D092}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1502,25 +1502,65 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="18" fontId="27" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="165" fontId="27" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1529,46 +1569,24 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="18" fontId="20" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1581,264 +1599,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="18" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="20" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="18" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="27" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="18" fontId="29" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="27" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="24" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1852,7 +1627,245 @@
     <xf numFmtId="164" fontId="24" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="27" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="29" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1873,22 +1886,9 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2209,8 +2209,8 @@
   </sheetPr>
   <dimension ref="A1:AN979"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="AP58" sqref="AP58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.8"/>
@@ -2221,202 +2221,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A1" s="39"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="A1" s="100"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
       <c r="K1" s="14"/>
-      <c r="L1" s="106" t="s">
+      <c r="L1" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="59"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="91"/>
       <c r="AE1" s="14"/>
-      <c r="AF1" s="107" t="s">
+      <c r="AF1" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="25"/>
-      <c r="AK1" s="25"/>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="25"/>
-      <c r="AN1" s="26"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="20"/>
     </row>
     <row r="2" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="43" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
       <c r="K2" s="14"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="61"/>
-      <c r="AD2" s="62"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="94"/>
       <c r="AE2" s="14"/>
-      <c r="AF2" s="107" t="s">
+      <c r="AF2" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="AG2" s="25"/>
-      <c r="AH2" s="25"/>
-      <c r="AI2" s="25"/>
-      <c r="AJ2" s="25"/>
-      <c r="AK2" s="25"/>
-      <c r="AL2" s="25"/>
-      <c r="AM2" s="25"/>
-      <c r="AN2" s="26"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="19"/>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="19"/>
+      <c r="AN2" s="20"/>
     </row>
     <row r="3" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="43" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="61"/>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="61"/>
-      <c r="AC3" s="61"/>
-      <c r="AD3" s="62"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="93"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="93"/>
+      <c r="AB3" s="93"/>
+      <c r="AC3" s="93"/>
+      <c r="AD3" s="94"/>
       <c r="AE3" s="14"/>
-      <c r="AF3" s="107" t="s">
+      <c r="AF3" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="AG3" s="25"/>
-      <c r="AH3" s="25"/>
-      <c r="AI3" s="25"/>
-      <c r="AJ3" s="25"/>
-      <c r="AK3" s="25"/>
-      <c r="AL3" s="25"/>
-      <c r="AM3" s="25"/>
-      <c r="AN3" s="26"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
+      <c r="AN3" s="20"/>
     </row>
     <row r="4" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A4" s="44"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
       <c r="K4" s="14"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="64"/>
-      <c r="T4" s="64"/>
-      <c r="U4" s="64"/>
-      <c r="V4" s="64"/>
-      <c r="W4" s="64"/>
-      <c r="X4" s="64"/>
-      <c r="Y4" s="64"/>
-      <c r="Z4" s="64"/>
-      <c r="AA4" s="64"/>
-      <c r="AB4" s="64"/>
-      <c r="AC4" s="64"/>
-      <c r="AD4" s="65"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="96"/>
+      <c r="X4" s="96"/>
+      <c r="Y4" s="96"/>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="96"/>
+      <c r="AD4" s="97"/>
       <c r="AE4" s="14"/>
-      <c r="AF4" s="107" t="s">
+      <c r="AF4" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="25"/>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="26"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="19"/>
+      <c r="AI4" s="19"/>
+      <c r="AJ4" s="19"/>
+      <c r="AK4" s="19"/>
+      <c r="AL4" s="19"/>
+      <c r="AM4" s="19"/>
+      <c r="AN4" s="20"/>
     </row>
     <row r="5" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A5" s="44"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
       <c r="K5" s="14"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -2424,13 +2424,13 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-      <c r="R5" s="135"/>
-      <c r="S5" s="135"/>
-      <c r="T5" s="135"/>
-      <c r="U5" s="135"/>
-      <c r="V5" s="135"/>
-      <c r="W5" s="135"/>
-      <c r="X5" s="135"/>
+      <c r="R5" s="163"/>
+      <c r="S5" s="163"/>
+      <c r="T5" s="163"/>
+      <c r="U5" s="163"/>
+      <c r="V5" s="163"/>
+      <c r="W5" s="163"/>
+      <c r="X5" s="163"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
@@ -2438,184 +2438,184 @@
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
       <c r="AE5" s="14"/>
-      <c r="AF5" s="47" t="s">
+      <c r="AF5" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="AG5" s="25"/>
-      <c r="AH5" s="25"/>
-      <c r="AI5" s="25"/>
-      <c r="AJ5" s="25"/>
-      <c r="AK5" s="25"/>
-      <c r="AL5" s="25"/>
-      <c r="AM5" s="25"/>
-      <c r="AN5" s="26"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="20"/>
     </row>
     <row r="6" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A6" s="44"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
       <c r="K6" s="14"/>
-      <c r="L6" s="46" t="s">
+      <c r="L6" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="134"/>
-      <c r="U6" s="134"/>
-      <c r="V6" s="134"/>
-      <c r="W6" s="46" t="s">
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="161"/>
+      <c r="U6" s="161"/>
+      <c r="V6" s="161"/>
+      <c r="W6" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
-      <c r="AC6" s="25"/>
-      <c r="AD6" s="26"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="20"/>
       <c r="AE6" s="14"/>
-      <c r="AF6" s="53" t="s">
+      <c r="AF6" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="19"/>
-      <c r="AJ6" s="19"/>
-      <c r="AK6" s="19"/>
-      <c r="AL6" s="19"/>
-      <c r="AM6" s="19"/>
-      <c r="AN6" s="48"/>
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="25"/>
+      <c r="AI6" s="25"/>
+      <c r="AJ6" s="25"/>
+      <c r="AK6" s="25"/>
+      <c r="AL6" s="25"/>
+      <c r="AM6" s="25"/>
+      <c r="AN6" s="26"/>
     </row>
     <row r="7" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A7" s="44"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
       <c r="K7" s="14"/>
-      <c r="L7" s="108" t="s">
+      <c r="L7" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="134"/>
-      <c r="U7" s="134"/>
-      <c r="V7" s="134"/>
-      <c r="W7" s="108" t="s">
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="161"/>
+      <c r="U7" s="161"/>
+      <c r="V7" s="161"/>
+      <c r="W7" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="48"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="26"/>
       <c r="AE7" s="14"/>
-      <c r="AF7" s="42"/>
-      <c r="AG7" s="23"/>
-      <c r="AH7" s="23"/>
-      <c r="AI7" s="23"/>
-      <c r="AJ7" s="23"/>
-      <c r="AK7" s="23"/>
-      <c r="AL7" s="23"/>
-      <c r="AM7" s="23"/>
-      <c r="AN7" s="49"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="31"/>
+      <c r="AH7" s="31"/>
+      <c r="AI7" s="31"/>
+      <c r="AJ7" s="31"/>
+      <c r="AK7" s="31"/>
+      <c r="AL7" s="31"/>
+      <c r="AM7" s="31"/>
+      <c r="AN7" s="32"/>
     </row>
     <row r="8" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A8" s="44"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
       <c r="K8" s="14"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="49"/>
-      <c r="T8" s="134"/>
-      <c r="U8" s="134"/>
-      <c r="V8" s="134"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="23"/>
-      <c r="AC8" s="23"/>
-      <c r="AD8" s="49"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="161"/>
+      <c r="U8" s="161"/>
+      <c r="V8" s="161"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="31"/>
+      <c r="Y8" s="31"/>
+      <c r="Z8" s="31"/>
+      <c r="AA8" s="31"/>
+      <c r="AB8" s="31"/>
+      <c r="AC8" s="31"/>
+      <c r="AD8" s="32"/>
       <c r="AE8" s="14"/>
-      <c r="AF8" s="47" t="s">
+      <c r="AF8" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="AG8" s="25"/>
-      <c r="AH8" s="25"/>
-      <c r="AI8" s="25"/>
-      <c r="AJ8" s="25"/>
-      <c r="AK8" s="25"/>
-      <c r="AL8" s="25"/>
-      <c r="AM8" s="25"/>
-      <c r="AN8" s="26"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="19"/>
+      <c r="AI8" s="19"/>
+      <c r="AJ8" s="19"/>
+      <c r="AK8" s="19"/>
+      <c r="AL8" s="19"/>
+      <c r="AM8" s="19"/>
+      <c r="AN8" s="20"/>
     </row>
     <row r="9" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="43" t="s">
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
       <c r="K9" s="14"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="134"/>
-      <c r="U9" s="134"/>
-      <c r="V9" s="134"/>
-      <c r="W9" s="18"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="161"/>
+      <c r="U9" s="161"/>
+      <c r="V9" s="161"/>
+      <c r="W9" s="56"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
@@ -2624,33 +2624,33 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="14"/>
-      <c r="AF9" s="111" t="s">
+      <c r="AF9" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="AG9" s="66"/>
-      <c r="AH9" s="66"/>
-      <c r="AI9" s="66"/>
-      <c r="AJ9" s="66"/>
-      <c r="AK9" s="66"/>
-      <c r="AL9" s="66"/>
-      <c r="AM9" s="66"/>
-      <c r="AN9" s="67"/>
+      <c r="AG9" s="84"/>
+      <c r="AH9" s="84"/>
+      <c r="AI9" s="84"/>
+      <c r="AJ9" s="84"/>
+      <c r="AK9" s="84"/>
+      <c r="AL9" s="84"/>
+      <c r="AM9" s="84"/>
+      <c r="AN9" s="85"/>
     </row>
     <row r="10" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="43" t="s">
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
       <c r="K10" s="14"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -2663,7 +2663,7 @@
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
       <c r="V10" s="15"/>
-      <c r="W10" s="136"/>
+      <c r="W10" s="162"/>
       <c r="X10" s="15"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
@@ -2672,31 +2672,31 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="14"/>
-      <c r="AF10" s="112" t="s">
+      <c r="AF10" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="AG10" s="68"/>
-      <c r="AH10" s="68"/>
-      <c r="AI10" s="68"/>
-      <c r="AJ10" s="68"/>
-      <c r="AK10" s="68"/>
-      <c r="AL10" s="68"/>
-      <c r="AM10" s="68"/>
-      <c r="AN10" s="69"/>
+      <c r="AG10" s="87"/>
+      <c r="AH10" s="87"/>
+      <c r="AI10" s="87"/>
+      <c r="AJ10" s="87"/>
+      <c r="AK10" s="87"/>
+      <c r="AL10" s="87"/>
+      <c r="AM10" s="87"/>
+      <c r="AN10" s="88"/>
     </row>
     <row r="11" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="26"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="20"/>
       <c r="K11" s="14"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -2704,15 +2704,15 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="137" t="s">
+      <c r="R11" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="S11" s="138"/>
-      <c r="T11" s="138"/>
-      <c r="U11" s="138"/>
-      <c r="V11" s="138"/>
-      <c r="W11" s="138"/>
-      <c r="X11" s="139"/>
+      <c r="S11" s="80"/>
+      <c r="T11" s="80"/>
+      <c r="U11" s="80"/>
+      <c r="V11" s="80"/>
+      <c r="W11" s="80"/>
+      <c r="X11" s="81"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
@@ -2720,31 +2720,31 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="14"/>
-      <c r="AF11" s="47" t="s">
+      <c r="AF11" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="AG11" s="25"/>
-      <c r="AH11" s="25"/>
-      <c r="AI11" s="25"/>
-      <c r="AJ11" s="25"/>
-      <c r="AK11" s="25"/>
-      <c r="AL11" s="25"/>
-      <c r="AM11" s="25"/>
-      <c r="AN11" s="26"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="19"/>
+      <c r="AJ11" s="19"/>
+      <c r="AK11" s="19"/>
+      <c r="AL11" s="19"/>
+      <c r="AM11" s="19"/>
+      <c r="AN11" s="20"/>
     </row>
     <row r="12" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="26"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="20"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -2752,15 +2752,15 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="109" t="s">
+      <c r="R12" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="26"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="20"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
@@ -2768,305 +2768,305 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
-      <c r="AF12" s="113" t="s">
+      <c r="AF12" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="AG12" s="25"/>
-      <c r="AH12" s="25"/>
-      <c r="AI12" s="25"/>
-      <c r="AJ12" s="25"/>
-      <c r="AK12" s="25"/>
-      <c r="AL12" s="25"/>
-      <c r="AM12" s="25"/>
-      <c r="AN12" s="26"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="19"/>
+      <c r="AK12" s="19"/>
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="19"/>
+      <c r="AN12" s="20"/>
     </row>
     <row r="13" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
-      <c r="AC13" s="19"/>
-      <c r="AD13" s="19"/>
-      <c r="AE13" s="19"/>
-      <c r="AF13" s="19"/>
-      <c r="AG13" s="19"/>
-      <c r="AH13" s="19"/>
-      <c r="AI13" s="19"/>
-      <c r="AJ13" s="19"/>
-      <c r="AK13" s="19"/>
-      <c r="AL13" s="19"/>
-      <c r="AM13" s="19"/>
-      <c r="AN13" s="48"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="25"/>
+      <c r="AE13" s="25"/>
+      <c r="AF13" s="25"/>
+      <c r="AG13" s="25"/>
+      <c r="AH13" s="25"/>
+      <c r="AI13" s="25"/>
+      <c r="AJ13" s="25"/>
+      <c r="AK13" s="25"/>
+      <c r="AL13" s="25"/>
+      <c r="AM13" s="25"/>
+      <c r="AN13" s="26"/>
     </row>
     <row r="14" spans="1:40" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="40" t="s">
+      <c r="B14" s="69"/>
+      <c r="C14" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="52" t="s">
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="69"/>
+      <c r="V14" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="41"/>
-      <c r="AB14" s="52" t="s">
+      <c r="W14" s="47"/>
+      <c r="X14" s="47"/>
+      <c r="Y14" s="47"/>
+      <c r="Z14" s="47"/>
+      <c r="AA14" s="69"/>
+      <c r="AB14" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="41"/>
-      <c r="AE14" s="52" t="s">
+      <c r="AC14" s="47"/>
+      <c r="AD14" s="69"/>
+      <c r="AE14" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="AF14" s="31"/>
-      <c r="AG14" s="41"/>
-      <c r="AH14" s="54" t="s">
+      <c r="AF14" s="47"/>
+      <c r="AG14" s="69"/>
+      <c r="AH14" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="AI14" s="21"/>
-      <c r="AJ14" s="21"/>
-      <c r="AK14" s="21"/>
-      <c r="AL14" s="21"/>
-      <c r="AM14" s="21"/>
-      <c r="AN14" s="55"/>
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="28"/>
+      <c r="AK14" s="28"/>
+      <c r="AL14" s="28"/>
+      <c r="AM14" s="28"/>
+      <c r="AN14" s="63"/>
     </row>
     <row r="15" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A15" s="160" t="s">
+      <c r="A15" s="71" t="s">
         <v>228</v>
       </c>
-      <c r="B15" s="161"/>
-      <c r="C15" s="155" t="s">
+      <c r="B15" s="72"/>
+      <c r="C15" s="164" t="s">
         <v>230</v>
       </c>
-      <c r="D15" s="156"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="156"/>
-      <c r="G15" s="156"/>
-      <c r="H15" s="156"/>
-      <c r="I15" s="156"/>
-      <c r="J15" s="156"/>
-      <c r="K15" s="156"/>
-      <c r="L15" s="156"/>
-      <c r="M15" s="156"/>
-      <c r="N15" s="156"/>
-      <c r="O15" s="156"/>
-      <c r="P15" s="156"/>
-      <c r="Q15" s="156"/>
-      <c r="R15" s="156"/>
-      <c r="S15" s="156"/>
-      <c r="T15" s="156"/>
-      <c r="U15" s="157"/>
-      <c r="V15" s="171" t="s">
+      <c r="D15" s="165"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="165"/>
+      <c r="K15" s="165"/>
+      <c r="L15" s="165"/>
+      <c r="M15" s="165"/>
+      <c r="N15" s="165"/>
+      <c r="O15" s="165"/>
+      <c r="P15" s="165"/>
+      <c r="Q15" s="165"/>
+      <c r="R15" s="165"/>
+      <c r="S15" s="165"/>
+      <c r="T15" s="165"/>
+      <c r="U15" s="166"/>
+      <c r="V15" s="107" t="s">
         <v>232</v>
       </c>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
-      <c r="Y15" s="21"/>
-      <c r="Z15" s="21"/>
-      <c r="AA15" s="51"/>
-      <c r="AB15" s="50" t="s">
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="AC15" s="21"/>
-      <c r="AD15" s="51"/>
-      <c r="AE15" s="173" t="s">
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="104" t="s">
         <v>234</v>
       </c>
-      <c r="AF15" s="21"/>
-      <c r="AG15" s="51"/>
-      <c r="AH15" s="72" t="s">
+      <c r="AF15" s="28"/>
+      <c r="AG15" s="29"/>
+      <c r="AH15" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="AI15" s="19"/>
-      <c r="AJ15" s="19"/>
-      <c r="AK15" s="19"/>
-      <c r="AL15" s="19"/>
-      <c r="AM15" s="19"/>
-      <c r="AN15" s="48"/>
+      <c r="AI15" s="25"/>
+      <c r="AJ15" s="25"/>
+      <c r="AK15" s="25"/>
+      <c r="AL15" s="25"/>
+      <c r="AM15" s="25"/>
+      <c r="AN15" s="26"/>
     </row>
     <row r="16" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A16" s="162"/>
-      <c r="B16" s="163"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="158"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="158"/>
-      <c r="J16" s="158"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="158"/>
-      <c r="M16" s="158"/>
-      <c r="N16" s="158"/>
-      <c r="O16" s="158"/>
-      <c r="P16" s="158"/>
-      <c r="Q16" s="158"/>
-      <c r="R16" s="158"/>
-      <c r="S16" s="158"/>
-      <c r="T16" s="158"/>
-      <c r="U16" s="159"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="49"/>
-      <c r="AB16" s="42"/>
-      <c r="AC16" s="23"/>
-      <c r="AD16" s="49"/>
-      <c r="AE16" s="23"/>
-      <c r="AF16" s="23"/>
-      <c r="AG16" s="49"/>
-      <c r="AH16" s="73"/>
-      <c r="AI16" s="21"/>
-      <c r="AJ16" s="21"/>
-      <c r="AK16" s="21"/>
-      <c r="AL16" s="21"/>
-      <c r="AM16" s="21"/>
-      <c r="AN16" s="51"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="168"/>
+      <c r="E16" s="168"/>
+      <c r="F16" s="168"/>
+      <c r="G16" s="168"/>
+      <c r="H16" s="168"/>
+      <c r="I16" s="168"/>
+      <c r="J16" s="168"/>
+      <c r="K16" s="168"/>
+      <c r="L16" s="168"/>
+      <c r="M16" s="168"/>
+      <c r="N16" s="168"/>
+      <c r="O16" s="168"/>
+      <c r="P16" s="168"/>
+      <c r="Q16" s="168"/>
+      <c r="R16" s="168"/>
+      <c r="S16" s="168"/>
+      <c r="T16" s="168"/>
+      <c r="U16" s="169"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="32"/>
+      <c r="AB16" s="30"/>
+      <c r="AC16" s="31"/>
+      <c r="AD16" s="32"/>
+      <c r="AE16" s="31"/>
+      <c r="AF16" s="31"/>
+      <c r="AG16" s="32"/>
+      <c r="AH16" s="27"/>
+      <c r="AI16" s="28"/>
+      <c r="AJ16" s="28"/>
+      <c r="AK16" s="28"/>
+      <c r="AL16" s="28"/>
+      <c r="AM16" s="28"/>
+      <c r="AN16" s="29"/>
     </row>
     <row r="17" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A17" s="164" t="s">
+      <c r="A17" s="57" t="s">
         <v>229</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="165" t="s">
+      <c r="B17" s="26"/>
+      <c r="C17" s="170" t="s">
         <v>231</v>
       </c>
-      <c r="D17" s="166"/>
-      <c r="E17" s="166"/>
-      <c r="F17" s="166"/>
-      <c r="G17" s="166"/>
-      <c r="H17" s="166"/>
-      <c r="I17" s="166"/>
-      <c r="J17" s="166"/>
-      <c r="K17" s="166"/>
-      <c r="L17" s="166"/>
-      <c r="M17" s="166"/>
-      <c r="N17" s="166"/>
-      <c r="O17" s="166"/>
-      <c r="P17" s="166"/>
-      <c r="Q17" s="166"/>
-      <c r="R17" s="166"/>
-      <c r="S17" s="166"/>
-      <c r="T17" s="166"/>
-      <c r="U17" s="167"/>
-      <c r="V17" s="172" t="s">
+      <c r="D17" s="171"/>
+      <c r="E17" s="171"/>
+      <c r="F17" s="171"/>
+      <c r="G17" s="171"/>
+      <c r="H17" s="171"/>
+      <c r="I17" s="171"/>
+      <c r="J17" s="171"/>
+      <c r="K17" s="171"/>
+      <c r="L17" s="171"/>
+      <c r="M17" s="171"/>
+      <c r="N17" s="171"/>
+      <c r="O17" s="171"/>
+      <c r="P17" s="171"/>
+      <c r="Q17" s="171"/>
+      <c r="R17" s="171"/>
+      <c r="S17" s="171"/>
+      <c r="T17" s="171"/>
+      <c r="U17" s="172"/>
+      <c r="V17" s="66" t="s">
         <v>233</v>
       </c>
-      <c r="W17" s="19"/>
-      <c r="X17" s="19"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="48"/>
-      <c r="AB17" s="74" t="s">
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="AC17" s="19"/>
-      <c r="AD17" s="48"/>
-      <c r="AE17" s="174" t="s">
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="26"/>
+      <c r="AE17" s="103" t="s">
         <v>235</v>
       </c>
-      <c r="AF17" s="19"/>
-      <c r="AG17" s="48"/>
-      <c r="AH17" s="73"/>
-      <c r="AI17" s="21"/>
-      <c r="AJ17" s="21"/>
-      <c r="AK17" s="21"/>
-      <c r="AL17" s="21"/>
-      <c r="AM17" s="21"/>
-      <c r="AN17" s="51"/>
+      <c r="AF17" s="25"/>
+      <c r="AG17" s="26"/>
+      <c r="AH17" s="27"/>
+      <c r="AI17" s="28"/>
+      <c r="AJ17" s="28"/>
+      <c r="AK17" s="28"/>
+      <c r="AL17" s="28"/>
+      <c r="AM17" s="28"/>
+      <c r="AN17" s="29"/>
     </row>
     <row r="18" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A18" s="42"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="168"/>
-      <c r="D18" s="169"/>
-      <c r="E18" s="169"/>
-      <c r="F18" s="169"/>
-      <c r="G18" s="169"/>
-      <c r="H18" s="169"/>
-      <c r="I18" s="169"/>
-      <c r="J18" s="169"/>
-      <c r="K18" s="169"/>
-      <c r="L18" s="169"/>
-      <c r="M18" s="169"/>
-      <c r="N18" s="169"/>
-      <c r="O18" s="169"/>
-      <c r="P18" s="169"/>
-      <c r="Q18" s="169"/>
-      <c r="R18" s="169"/>
-      <c r="S18" s="169"/>
-      <c r="T18" s="169"/>
-      <c r="U18" s="170"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="23"/>
-      <c r="Y18" s="23"/>
-      <c r="Z18" s="23"/>
-      <c r="AA18" s="49"/>
-      <c r="AB18" s="42"/>
-      <c r="AC18" s="23"/>
-      <c r="AD18" s="49"/>
-      <c r="AE18" s="23"/>
-      <c r="AF18" s="23"/>
-      <c r="AG18" s="49"/>
-      <c r="AH18" s="42"/>
-      <c r="AI18" s="23"/>
-      <c r="AJ18" s="23"/>
-      <c r="AK18" s="23"/>
-      <c r="AL18" s="23"/>
-      <c r="AM18" s="23"/>
-      <c r="AN18" s="49"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="173"/>
+      <c r="D18" s="174"/>
+      <c r="E18" s="174"/>
+      <c r="F18" s="174"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="174"/>
+      <c r="J18" s="174"/>
+      <c r="K18" s="174"/>
+      <c r="L18" s="174"/>
+      <c r="M18" s="174"/>
+      <c r="N18" s="174"/>
+      <c r="O18" s="174"/>
+      <c r="P18" s="174"/>
+      <c r="Q18" s="174"/>
+      <c r="R18" s="174"/>
+      <c r="S18" s="174"/>
+      <c r="T18" s="174"/>
+      <c r="U18" s="175"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
+      <c r="AA18" s="32"/>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="31"/>
+      <c r="AD18" s="32"/>
+      <c r="AE18" s="31"/>
+      <c r="AF18" s="31"/>
+      <c r="AG18" s="32"/>
+      <c r="AH18" s="30"/>
+      <c r="AI18" s="31"/>
+      <c r="AJ18" s="31"/>
+      <c r="AK18" s="31"/>
+      <c r="AL18" s="31"/>
+      <c r="AM18" s="31"/>
+      <c r="AN18" s="32"/>
     </row>
     <row r="19" spans="1:40" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
       <c r="A19" s="12"/>
@@ -3094,18 +3094,18 @@
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
       <c r="Y19" s="6"/>
-      <c r="Z19" s="71" t="s">
+      <c r="Z19" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="AA19" s="25"/>
-      <c r="AB19" s="25"/>
-      <c r="AC19" s="25"/>
-      <c r="AD19" s="25"/>
-      <c r="AE19" s="175" t="s">
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="113" t="s">
         <v>236</v>
       </c>
-      <c r="AF19" s="104"/>
-      <c r="AG19" s="176"/>
+      <c r="AF19" s="114"/>
+      <c r="AG19" s="115"/>
       <c r="AH19" s="4"/>
       <c r="AI19" s="4"/>
       <c r="AJ19" s="4"/>
@@ -3118,746 +3118,746 @@
       <c r="A20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="70" t="s">
+      <c r="B20" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="70" t="s">
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="70" t="s">
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="R20" s="31"/>
-      <c r="S20" s="70" t="s">
+      <c r="R20" s="47"/>
+      <c r="S20" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="70" t="s">
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="70" t="s">
+      <c r="X20" s="47"/>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="47"/>
+      <c r="AA20" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="AB20" s="31"/>
-      <c r="AC20" s="31"/>
-      <c r="AD20" s="31"/>
-      <c r="AE20" s="31"/>
-      <c r="AF20" s="31"/>
-      <c r="AG20" s="31"/>
-      <c r="AH20" s="31"/>
-      <c r="AI20" s="31"/>
-      <c r="AJ20" s="31"/>
-      <c r="AK20" s="31"/>
-      <c r="AL20" s="31"/>
-      <c r="AM20" s="31"/>
-      <c r="AN20" s="31"/>
+      <c r="AB20" s="47"/>
+      <c r="AC20" s="47"/>
+      <c r="AD20" s="47"/>
+      <c r="AE20" s="47"/>
+      <c r="AF20" s="47"/>
+      <c r="AG20" s="47"/>
+      <c r="AH20" s="47"/>
+      <c r="AI20" s="47"/>
+      <c r="AJ20" s="47"/>
+      <c r="AK20" s="47"/>
+      <c r="AL20" s="47"/>
+      <c r="AM20" s="47"/>
+      <c r="AN20" s="47"/>
     </row>
     <row r="21" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A21" s="9">
         <v>1</v>
       </c>
-      <c r="B21" s="114" t="s">
+      <c r="B21" s="119" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="114" t="s">
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="119" t="s">
         <v>88</v>
       </c>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="27" t="s">
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="R21" s="25"/>
-      <c r="S21" s="115" t="s">
+      <c r="R21" s="19"/>
+      <c r="S21" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="115" t="s">
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="121" t="s">
         <v>90</v>
       </c>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="25"/>
-      <c r="AA21" s="116" t="s">
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="120" t="s">
         <v>91</v>
       </c>
-      <c r="AB21" s="23"/>
-      <c r="AC21" s="23"/>
-      <c r="AD21" s="23"/>
-      <c r="AE21" s="23"/>
-      <c r="AF21" s="23"/>
-      <c r="AG21" s="23"/>
-      <c r="AH21" s="23"/>
-      <c r="AI21" s="23"/>
-      <c r="AJ21" s="23"/>
-      <c r="AK21" s="23"/>
-      <c r="AL21" s="23"/>
-      <c r="AM21" s="23"/>
-      <c r="AN21" s="49"/>
+      <c r="AB21" s="31"/>
+      <c r="AC21" s="31"/>
+      <c r="AD21" s="31"/>
+      <c r="AE21" s="31"/>
+      <c r="AF21" s="31"/>
+      <c r="AG21" s="31"/>
+      <c r="AH21" s="31"/>
+      <c r="AI21" s="31"/>
+      <c r="AJ21" s="31"/>
+      <c r="AK21" s="31"/>
+      <c r="AL21" s="31"/>
+      <c r="AM21" s="31"/>
+      <c r="AN21" s="32"/>
     </row>
     <row r="22" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A22" s="10">
         <v>2</v>
       </c>
-      <c r="B22" s="114" t="s">
+      <c r="B22" s="119" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="114" t="s">
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="119" t="s">
         <v>87</v>
       </c>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="27" t="s">
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="R22" s="25"/>
-      <c r="S22" s="115" t="s">
+      <c r="R22" s="19"/>
+      <c r="S22" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="115" t="s">
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="121" t="s">
         <v>90</v>
       </c>
-      <c r="X22" s="25"/>
-      <c r="Y22" s="25"/>
-      <c r="Z22" s="25"/>
-      <c r="AA22" s="114" t="s">
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="119" t="s">
         <v>92</v>
       </c>
-      <c r="AB22" s="25"/>
-      <c r="AC22" s="25"/>
-      <c r="AD22" s="25"/>
-      <c r="AE22" s="25"/>
-      <c r="AF22" s="25"/>
-      <c r="AG22" s="25"/>
-      <c r="AH22" s="25"/>
-      <c r="AI22" s="25"/>
-      <c r="AJ22" s="25"/>
-      <c r="AK22" s="25"/>
-      <c r="AL22" s="25"/>
-      <c r="AM22" s="25"/>
-      <c r="AN22" s="26"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="19"/>
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="19"/>
+      <c r="AI22" s="19"/>
+      <c r="AJ22" s="19"/>
+      <c r="AK22" s="19"/>
+      <c r="AL22" s="19"/>
+      <c r="AM22" s="19"/>
+      <c r="AN22" s="20"/>
     </row>
     <row r="23" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A23" s="10">
         <v>3</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="78"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="25"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="25"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="25"/>
-      <c r="AC23" s="25"/>
-      <c r="AD23" s="25"/>
-      <c r="AE23" s="25"/>
-      <c r="AF23" s="25"/>
-      <c r="AG23" s="25"/>
-      <c r="AH23" s="25"/>
-      <c r="AI23" s="25"/>
-      <c r="AJ23" s="25"/>
-      <c r="AK23" s="25"/>
-      <c r="AL23" s="25"/>
-      <c r="AM23" s="25"/>
-      <c r="AN23" s="26"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="108"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="19"/>
+      <c r="AC23" s="19"/>
+      <c r="AD23" s="19"/>
+      <c r="AE23" s="19"/>
+      <c r="AF23" s="19"/>
+      <c r="AG23" s="19"/>
+      <c r="AH23" s="19"/>
+      <c r="AI23" s="19"/>
+      <c r="AJ23" s="19"/>
+      <c r="AK23" s="19"/>
+      <c r="AL23" s="19"/>
+      <c r="AM23" s="19"/>
+      <c r="AN23" s="20"/>
     </row>
     <row r="24" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A24" s="79" t="s">
+      <c r="A24" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="31"/>
-      <c r="X24" s="31"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="31"/>
-      <c r="AA24" s="31"/>
-      <c r="AB24" s="31"/>
-      <c r="AC24" s="31"/>
-      <c r="AD24" s="31"/>
-      <c r="AE24" s="31"/>
-      <c r="AF24" s="31"/>
-      <c r="AG24" s="31"/>
-      <c r="AH24" s="31"/>
-      <c r="AI24" s="31"/>
-      <c r="AJ24" s="31"/>
-      <c r="AK24" s="31"/>
-      <c r="AL24" s="31"/>
-      <c r="AM24" s="31"/>
-      <c r="AN24" s="31"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="47"/>
+      <c r="U24" s="47"/>
+      <c r="V24" s="47"/>
+      <c r="W24" s="47"/>
+      <c r="X24" s="47"/>
+      <c r="Y24" s="47"/>
+      <c r="Z24" s="47"/>
+      <c r="AA24" s="47"/>
+      <c r="AB24" s="47"/>
+      <c r="AC24" s="47"/>
+      <c r="AD24" s="47"/>
+      <c r="AE24" s="47"/>
+      <c r="AF24" s="47"/>
+      <c r="AG24" s="47"/>
+      <c r="AH24" s="47"/>
+      <c r="AI24" s="47"/>
+      <c r="AJ24" s="47"/>
+      <c r="AK24" s="47"/>
+      <c r="AL24" s="47"/>
+      <c r="AM24" s="47"/>
+      <c r="AN24" s="47"/>
     </row>
     <row r="25" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="49"/>
-      <c r="U25" s="81" t="s">
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="49"/>
-      <c r="Y25" s="75"/>
-      <c r="Z25" s="23"/>
-      <c r="AA25" s="23"/>
-      <c r="AB25" s="23"/>
-      <c r="AC25" s="23"/>
-      <c r="AD25" s="23"/>
-      <c r="AE25" s="23"/>
-      <c r="AF25" s="23"/>
-      <c r="AG25" s="23"/>
-      <c r="AH25" s="23"/>
-      <c r="AI25" s="23"/>
-      <c r="AJ25" s="23"/>
-      <c r="AK25" s="23"/>
-      <c r="AL25" s="23"/>
-      <c r="AM25" s="23"/>
-      <c r="AN25" s="49"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="111"/>
+      <c r="Z25" s="31"/>
+      <c r="AA25" s="31"/>
+      <c r="AB25" s="31"/>
+      <c r="AC25" s="31"/>
+      <c r="AD25" s="31"/>
+      <c r="AE25" s="31"/>
+      <c r="AF25" s="31"/>
+      <c r="AG25" s="31"/>
+      <c r="AH25" s="31"/>
+      <c r="AI25" s="31"/>
+      <c r="AJ25" s="31"/>
+      <c r="AK25" s="31"/>
+      <c r="AL25" s="31"/>
+      <c r="AM25" s="31"/>
+      <c r="AN25" s="32"/>
     </row>
     <row r="26" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="S26" s="25"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="29" t="s">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
-      <c r="X26" s="26"/>
-      <c r="Y26" s="27"/>
-      <c r="Z26" s="25"/>
-      <c r="AA26" s="25"/>
-      <c r="AB26" s="25"/>
-      <c r="AC26" s="25"/>
-      <c r="AD26" s="25"/>
-      <c r="AE26" s="25"/>
-      <c r="AF26" s="25"/>
-      <c r="AG26" s="25"/>
-      <c r="AH26" s="25"/>
-      <c r="AI26" s="25"/>
-      <c r="AJ26" s="25"/>
-      <c r="AK26" s="25"/>
-      <c r="AL26" s="25"/>
-      <c r="AM26" s="25"/>
-      <c r="AN26" s="26"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="19"/>
+      <c r="AD26" s="19"/>
+      <c r="AE26" s="19"/>
+      <c r="AF26" s="19"/>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="19"/>
+      <c r="AI26" s="19"/>
+      <c r="AJ26" s="19"/>
+      <c r="AK26" s="19"/>
+      <c r="AL26" s="19"/>
+      <c r="AM26" s="19"/>
+      <c r="AN26" s="20"/>
     </row>
     <row r="27" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="29" t="s">
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="V27" s="25"/>
-      <c r="W27" s="25"/>
-      <c r="X27" s="26"/>
-      <c r="Y27" s="27"/>
-      <c r="Z27" s="25"/>
-      <c r="AA27" s="25"/>
-      <c r="AB27" s="25"/>
-      <c r="AC27" s="25"/>
-      <c r="AD27" s="25"/>
-      <c r="AE27" s="25"/>
-      <c r="AF27" s="25"/>
-      <c r="AG27" s="25"/>
-      <c r="AH27" s="25"/>
-      <c r="AI27" s="25"/>
-      <c r="AJ27" s="25"/>
-      <c r="AK27" s="25"/>
-      <c r="AL27" s="25"/>
-      <c r="AM27" s="25"/>
-      <c r="AN27" s="26"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="19"/>
+      <c r="AD27" s="19"/>
+      <c r="AE27" s="19"/>
+      <c r="AF27" s="19"/>
+      <c r="AG27" s="19"/>
+      <c r="AH27" s="19"/>
+      <c r="AI27" s="19"/>
+      <c r="AJ27" s="19"/>
+      <c r="AK27" s="19"/>
+      <c r="AL27" s="19"/>
+      <c r="AM27" s="19"/>
+      <c r="AN27" s="20"/>
     </row>
     <row r="28" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="29" t="s">
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="V28" s="25"/>
-      <c r="W28" s="25"/>
-      <c r="X28" s="26"/>
-      <c r="Y28" s="27"/>
-      <c r="Z28" s="25"/>
-      <c r="AA28" s="25"/>
-      <c r="AB28" s="25"/>
-      <c r="AC28" s="25"/>
-      <c r="AD28" s="25"/>
-      <c r="AE28" s="25"/>
-      <c r="AF28" s="25"/>
-      <c r="AG28" s="25"/>
-      <c r="AH28" s="25"/>
-      <c r="AI28" s="25"/>
-      <c r="AJ28" s="25"/>
-      <c r="AK28" s="25"/>
-      <c r="AL28" s="25"/>
-      <c r="AM28" s="25"/>
-      <c r="AN28" s="26"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="19"/>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="19"/>
+      <c r="AG28" s="19"/>
+      <c r="AH28" s="19"/>
+      <c r="AI28" s="19"/>
+      <c r="AJ28" s="19"/>
+      <c r="AK28" s="19"/>
+      <c r="AL28" s="19"/>
+      <c r="AM28" s="19"/>
+      <c r="AN28" s="20"/>
     </row>
     <row r="29" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A29" s="77" t="s">
+      <c r="A29" s="176" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="48"/>
-      <c r="U29" s="80"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="76"/>
-      <c r="Z29" s="19"/>
-      <c r="AA29" s="19"/>
-      <c r="AB29" s="19"/>
-      <c r="AC29" s="19"/>
-      <c r="AD29" s="19"/>
-      <c r="AE29" s="19"/>
-      <c r="AF29" s="19"/>
-      <c r="AG29" s="19"/>
-      <c r="AH29" s="19"/>
-      <c r="AI29" s="19"/>
-      <c r="AJ29" s="19"/>
-      <c r="AK29" s="19"/>
-      <c r="AL29" s="19"/>
-      <c r="AM29" s="19"/>
-      <c r="AN29" s="48"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="117"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="25"/>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="118"/>
+      <c r="Z29" s="25"/>
+      <c r="AA29" s="25"/>
+      <c r="AB29" s="25"/>
+      <c r="AC29" s="25"/>
+      <c r="AD29" s="25"/>
+      <c r="AE29" s="25"/>
+      <c r="AF29" s="25"/>
+      <c r="AG29" s="25"/>
+      <c r="AH29" s="25"/>
+      <c r="AI29" s="25"/>
+      <c r="AJ29" s="25"/>
+      <c r="AK29" s="25"/>
+      <c r="AL29" s="25"/>
+      <c r="AM29" s="25"/>
+      <c r="AN29" s="26"/>
     </row>
     <row r="30" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="31"/>
-      <c r="X30" s="31"/>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="31"/>
-      <c r="AA30" s="31"/>
-      <c r="AB30" s="31"/>
-      <c r="AC30" s="31"/>
-      <c r="AD30" s="31"/>
-      <c r="AE30" s="31"/>
-      <c r="AF30" s="31"/>
-      <c r="AG30" s="31"/>
-      <c r="AH30" s="31"/>
-      <c r="AI30" s="31"/>
-      <c r="AJ30" s="31"/>
-      <c r="AK30" s="31"/>
-      <c r="AL30" s="31"/>
-      <c r="AM30" s="31"/>
-      <c r="AN30" s="31"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="47"/>
+      <c r="S30" s="47"/>
+      <c r="T30" s="47"/>
+      <c r="U30" s="47"/>
+      <c r="V30" s="47"/>
+      <c r="W30" s="47"/>
+      <c r="X30" s="47"/>
+      <c r="Y30" s="47"/>
+      <c r="Z30" s="47"/>
+      <c r="AA30" s="47"/>
+      <c r="AB30" s="47"/>
+      <c r="AC30" s="47"/>
+      <c r="AD30" s="47"/>
+      <c r="AE30" s="47"/>
+      <c r="AF30" s="47"/>
+      <c r="AG30" s="47"/>
+      <c r="AH30" s="47"/>
+      <c r="AI30" s="47"/>
+      <c r="AJ30" s="47"/>
+      <c r="AK30" s="47"/>
+      <c r="AL30" s="47"/>
+      <c r="AM30" s="47"/>
+      <c r="AN30" s="47"/>
     </row>
     <row r="31" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A31" s="32"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="33"/>
-      <c r="X31" s="33"/>
-      <c r="Y31" s="33"/>
-      <c r="Z31" s="33"/>
-      <c r="AA31" s="33"/>
-      <c r="AB31" s="33"/>
-      <c r="AC31" s="33"/>
-      <c r="AD31" s="33"/>
-      <c r="AE31" s="33"/>
-      <c r="AF31" s="33"/>
-      <c r="AG31" s="33"/>
-      <c r="AH31" s="33"/>
-      <c r="AI31" s="33"/>
-      <c r="AJ31" s="33"/>
-      <c r="AK31" s="33"/>
-      <c r="AL31" s="33"/>
-      <c r="AM31" s="33"/>
-      <c r="AN31" s="33"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="34"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="34"/>
+      <c r="X31" s="34"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="34"/>
+      <c r="AB31" s="34"/>
+      <c r="AC31" s="34"/>
+      <c r="AD31" s="34"/>
+      <c r="AE31" s="34"/>
+      <c r="AF31" s="34"/>
+      <c r="AG31" s="34"/>
+      <c r="AH31" s="34"/>
+      <c r="AI31" s="34"/>
+      <c r="AJ31" s="34"/>
+      <c r="AK31" s="34"/>
+      <c r="AL31" s="34"/>
+      <c r="AM31" s="34"/>
+      <c r="AN31" s="34"/>
     </row>
     <row r="32" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A32" s="34"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="35"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="35"/>
-      <c r="U32" s="35"/>
-      <c r="V32" s="35"/>
-      <c r="W32" s="35"/>
-      <c r="X32" s="35"/>
-      <c r="Y32" s="35"/>
-      <c r="Z32" s="35"/>
-      <c r="AA32" s="35"/>
-      <c r="AB32" s="35"/>
-      <c r="AC32" s="35"/>
-      <c r="AD32" s="35"/>
-      <c r="AE32" s="35"/>
-      <c r="AF32" s="35"/>
-      <c r="AG32" s="35"/>
-      <c r="AH32" s="35"/>
-      <c r="AI32" s="35"/>
-      <c r="AJ32" s="35"/>
-      <c r="AK32" s="35"/>
-      <c r="AL32" s="35"/>
-      <c r="AM32" s="35"/>
-      <c r="AN32" s="35"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="50"/>
+      <c r="V32" s="50"/>
+      <c r="W32" s="50"/>
+      <c r="X32" s="50"/>
+      <c r="Y32" s="50"/>
+      <c r="Z32" s="50"/>
+      <c r="AA32" s="50"/>
+      <c r="AB32" s="50"/>
+      <c r="AC32" s="50"/>
+      <c r="AD32" s="50"/>
+      <c r="AE32" s="50"/>
+      <c r="AF32" s="50"/>
+      <c r="AG32" s="50"/>
+      <c r="AH32" s="50"/>
+      <c r="AI32" s="50"/>
+      <c r="AJ32" s="50"/>
+      <c r="AK32" s="50"/>
+      <c r="AL32" s="50"/>
+      <c r="AM32" s="50"/>
+      <c r="AN32" s="50"/>
     </row>
     <row r="33" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="18" t="s">
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="18"/>
-      <c r="W33" s="19"/>
-      <c r="X33" s="19"/>
-      <c r="Y33" s="19"/>
-      <c r="Z33" s="19"/>
-      <c r="AA33" s="19"/>
-      <c r="AB33" s="18"/>
-      <c r="AC33" s="19"/>
-      <c r="AD33" s="19"/>
-      <c r="AE33" s="19"/>
-      <c r="AF33" s="19"/>
-      <c r="AG33" s="19"/>
-      <c r="AH33" s="18"/>
-      <c r="AI33" s="19"/>
-      <c r="AJ33" s="19"/>
-      <c r="AK33" s="19"/>
-      <c r="AL33" s="19"/>
-      <c r="AM33" s="19"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="25"/>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="25"/>
+      <c r="AB33" s="56"/>
+      <c r="AC33" s="25"/>
+      <c r="AD33" s="25"/>
+      <c r="AE33" s="25"/>
+      <c r="AF33" s="25"/>
+      <c r="AG33" s="25"/>
+      <c r="AH33" s="56"/>
+      <c r="AI33" s="25"/>
+      <c r="AJ33" s="25"/>
+      <c r="AK33" s="25"/>
+      <c r="AL33" s="25"/>
+      <c r="AM33" s="25"/>
       <c r="AN33" s="16"/>
     </row>
     <row r="34" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A34" s="118" t="s">
+      <c r="A34" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="119" t="s">
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="21"/>
-      <c r="V34" s="20"/>
-      <c r="W34" s="21"/>
-      <c r="X34" s="21"/>
-      <c r="Y34" s="21"/>
-      <c r="Z34" s="21"/>
-      <c r="AA34" s="21"/>
-      <c r="AB34" s="20"/>
-      <c r="AC34" s="21"/>
-      <c r="AD34" s="21"/>
-      <c r="AE34" s="21"/>
-      <c r="AF34" s="21"/>
-      <c r="AG34" s="21"/>
-      <c r="AH34" s="20"/>
-      <c r="AI34" s="21"/>
-      <c r="AJ34" s="21"/>
-      <c r="AK34" s="21"/>
-      <c r="AL34" s="21"/>
-      <c r="AM34" s="21"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="54"/>
+      <c r="W34" s="28"/>
+      <c r="X34" s="28"/>
+      <c r="Y34" s="28"/>
+      <c r="Z34" s="28"/>
+      <c r="AA34" s="28"/>
+      <c r="AB34" s="54"/>
+      <c r="AC34" s="28"/>
+      <c r="AD34" s="28"/>
+      <c r="AE34" s="28"/>
+      <c r="AF34" s="28"/>
+      <c r="AG34" s="28"/>
+      <c r="AH34" s="54"/>
+      <c r="AI34" s="28"/>
+      <c r="AJ34" s="28"/>
+      <c r="AK34" s="28"/>
+      <c r="AL34" s="28"/>
+      <c r="AM34" s="28"/>
       <c r="AN34" s="17"/>
     </row>
     <row r="35" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A35" s="93"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="23"/>
-      <c r="X35" s="23"/>
-      <c r="Y35" s="23"/>
-      <c r="Z35" s="23"/>
-      <c r="AA35" s="23"/>
-      <c r="AB35" s="22"/>
-      <c r="AC35" s="23"/>
-      <c r="AD35" s="23"/>
-      <c r="AE35" s="23"/>
-      <c r="AF35" s="23"/>
-      <c r="AG35" s="23"/>
-      <c r="AH35" s="22"/>
-      <c r="AI35" s="23"/>
-      <c r="AJ35" s="23"/>
-      <c r="AK35" s="23"/>
-      <c r="AL35" s="23"/>
-      <c r="AM35" s="23"/>
+      <c r="A35" s="123"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="55"/>
+      <c r="W35" s="31"/>
+      <c r="X35" s="31"/>
+      <c r="Y35" s="31"/>
+      <c r="Z35" s="31"/>
+      <c r="AA35" s="31"/>
+      <c r="AB35" s="55"/>
+      <c r="AC35" s="31"/>
+      <c r="AD35" s="31"/>
+      <c r="AE35" s="31"/>
+      <c r="AF35" s="31"/>
+      <c r="AG35" s="31"/>
+      <c r="AH35" s="55"/>
+      <c r="AI35" s="31"/>
+      <c r="AJ35" s="31"/>
+      <c r="AK35" s="31"/>
+      <c r="AL35" s="31"/>
+      <c r="AM35" s="31"/>
       <c r="AN35" s="11"/>
     </row>
     <row r="36" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.8">
@@ -3874,37 +3874,37 @@
       <c r="K36" s="13"/>
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
-      <c r="N36" s="82" t="s">
+      <c r="N36" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="19"/>
-      <c r="U36" s="19"/>
-      <c r="V36" s="19"/>
-      <c r="W36" s="19"/>
-      <c r="X36" s="19"/>
-      <c r="Y36" s="19"/>
-      <c r="Z36" s="19"/>
-      <c r="AA36" s="48"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="25"/>
+      <c r="X36" s="25"/>
+      <c r="Y36" s="25"/>
+      <c r="Z36" s="25"/>
+      <c r="AA36" s="26"/>
       <c r="AB36" s="13"/>
       <c r="AC36" s="13"/>
       <c r="AD36" s="13"/>
-      <c r="AE36" s="117" t="s">
+      <c r="AE36" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="AF36" s="19"/>
-      <c r="AG36" s="19"/>
-      <c r="AH36" s="19"/>
-      <c r="AI36" s="19"/>
-      <c r="AJ36" s="19"/>
-      <c r="AK36" s="19"/>
-      <c r="AL36" s="19"/>
-      <c r="AM36" s="19"/>
-      <c r="AN36" s="48"/>
+      <c r="AF36" s="25"/>
+      <c r="AG36" s="25"/>
+      <c r="AH36" s="25"/>
+      <c r="AI36" s="25"/>
+      <c r="AJ36" s="25"/>
+      <c r="AK36" s="25"/>
+      <c r="AL36" s="25"/>
+      <c r="AM36" s="25"/>
+      <c r="AN36" s="26"/>
     </row>
     <row r="37" spans="1:40" ht="13.5" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A37" s="13"/>
@@ -3920,33 +3920,33 @@
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
-      <c r="N37" s="73"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="21"/>
-      <c r="W37" s="21"/>
-      <c r="X37" s="21"/>
-      <c r="Y37" s="21"/>
-      <c r="Z37" s="21"/>
-      <c r="AA37" s="51"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="28"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="28"/>
+      <c r="U37" s="28"/>
+      <c r="V37" s="28"/>
+      <c r="W37" s="28"/>
+      <c r="X37" s="28"/>
+      <c r="Y37" s="28"/>
+      <c r="Z37" s="28"/>
+      <c r="AA37" s="29"/>
       <c r="AB37" s="13"/>
       <c r="AC37" s="13"/>
       <c r="AD37" s="13"/>
-      <c r="AE37" s="73"/>
-      <c r="AF37" s="21"/>
-      <c r="AG37" s="21"/>
-      <c r="AH37" s="21"/>
-      <c r="AI37" s="21"/>
-      <c r="AJ37" s="21"/>
-      <c r="AK37" s="21"/>
-      <c r="AL37" s="21"/>
-      <c r="AM37" s="21"/>
-      <c r="AN37" s="51"/>
+      <c r="AE37" s="27"/>
+      <c r="AF37" s="28"/>
+      <c r="AG37" s="28"/>
+      <c r="AH37" s="28"/>
+      <c r="AI37" s="28"/>
+      <c r="AJ37" s="28"/>
+      <c r="AK37" s="28"/>
+      <c r="AL37" s="28"/>
+      <c r="AM37" s="28"/>
+      <c r="AN37" s="29"/>
     </row>
     <row r="38" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A38" s="13"/>
@@ -3962,2043 +3962,2043 @@
       <c r="K38" s="13"/>
       <c r="L38" s="13"/>
       <c r="M38" s="13"/>
-      <c r="N38" s="42"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="23"/>
-      <c r="S38" s="23"/>
-      <c r="T38" s="23"/>
-      <c r="U38" s="23"/>
-      <c r="V38" s="23"/>
-      <c r="W38" s="23"/>
-      <c r="X38" s="23"/>
-      <c r="Y38" s="23"/>
-      <c r="Z38" s="23"/>
-      <c r="AA38" s="49"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="31"/>
+      <c r="W38" s="31"/>
+      <c r="X38" s="31"/>
+      <c r="Y38" s="31"/>
+      <c r="Z38" s="31"/>
+      <c r="AA38" s="32"/>
       <c r="AB38" s="13"/>
       <c r="AC38" s="13"/>
       <c r="AD38" s="13"/>
-      <c r="AE38" s="42"/>
-      <c r="AF38" s="23"/>
-      <c r="AG38" s="23"/>
-      <c r="AH38" s="23"/>
-      <c r="AI38" s="23"/>
-      <c r="AJ38" s="23"/>
-      <c r="AK38" s="23"/>
-      <c r="AL38" s="23"/>
-      <c r="AM38" s="23"/>
-      <c r="AN38" s="49"/>
+      <c r="AE38" s="30"/>
+      <c r="AF38" s="31"/>
+      <c r="AG38" s="31"/>
+      <c r="AH38" s="31"/>
+      <c r="AI38" s="31"/>
+      <c r="AJ38" s="31"/>
+      <c r="AK38" s="31"/>
+      <c r="AL38" s="31"/>
+      <c r="AM38" s="31"/>
+      <c r="AN38" s="32"/>
     </row>
     <row r="39" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A39" s="85" t="s">
+      <c r="A39" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="23"/>
-      <c r="R39" s="23"/>
-      <c r="S39" s="23"/>
-      <c r="T39" s="23"/>
-      <c r="U39" s="23"/>
-      <c r="V39" s="23"/>
-      <c r="W39" s="23"/>
-      <c r="X39" s="23"/>
-      <c r="Y39" s="23"/>
-      <c r="Z39" s="23"/>
-      <c r="AA39" s="23"/>
-      <c r="AB39" s="23"/>
-      <c r="AC39" s="23"/>
-      <c r="AD39" s="23"/>
-      <c r="AE39" s="23"/>
-      <c r="AF39" s="23"/>
-      <c r="AG39" s="23"/>
-      <c r="AH39" s="23"/>
-      <c r="AI39" s="23"/>
-      <c r="AJ39" s="23"/>
-      <c r="AK39" s="23"/>
-      <c r="AL39" s="23"/>
-      <c r="AM39" s="23"/>
-      <c r="AN39" s="23"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
+      <c r="T39" s="31"/>
+      <c r="U39" s="31"/>
+      <c r="V39" s="31"/>
+      <c r="W39" s="31"/>
+      <c r="X39" s="31"/>
+      <c r="Y39" s="31"/>
+      <c r="Z39" s="31"/>
+      <c r="AA39" s="31"/>
+      <c r="AB39" s="31"/>
+      <c r="AC39" s="31"/>
+      <c r="AD39" s="31"/>
+      <c r="AE39" s="31"/>
+      <c r="AF39" s="31"/>
+      <c r="AG39" s="31"/>
+      <c r="AH39" s="31"/>
+      <c r="AI39" s="31"/>
+      <c r="AJ39" s="31"/>
+      <c r="AK39" s="31"/>
+      <c r="AL39" s="31"/>
+      <c r="AM39" s="31"/>
+      <c r="AN39" s="31"/>
     </row>
     <row r="40" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A40" s="84" t="s">
+      <c r="A40" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="33"/>
-      <c r="O40" s="33"/>
-      <c r="P40" s="33"/>
-      <c r="Q40" s="83" t="s">
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="R40" s="33"/>
-      <c r="S40" s="33"/>
-      <c r="T40" s="33"/>
-      <c r="U40" s="88" t="s">
+      <c r="R40" s="34"/>
+      <c r="S40" s="34"/>
+      <c r="T40" s="34"/>
+      <c r="U40" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="V40" s="87"/>
-      <c r="W40" s="87"/>
-      <c r="X40" s="87"/>
-      <c r="Y40" s="87"/>
-      <c r="Z40" s="87"/>
-      <c r="AA40" s="87"/>
-      <c r="AB40" s="87"/>
-      <c r="AC40" s="87"/>
-      <c r="AD40" s="87"/>
-      <c r="AE40" s="87"/>
-      <c r="AF40" s="87"/>
-      <c r="AG40" s="87"/>
-      <c r="AH40" s="87"/>
-      <c r="AI40" s="87"/>
-      <c r="AJ40" s="87"/>
-      <c r="AK40" s="86" t="s">
+      <c r="V40" s="39"/>
+      <c r="W40" s="39"/>
+      <c r="X40" s="39"/>
+      <c r="Y40" s="39"/>
+      <c r="Z40" s="39"/>
+      <c r="AA40" s="39"/>
+      <c r="AB40" s="39"/>
+      <c r="AC40" s="39"/>
+      <c r="AD40" s="39"/>
+      <c r="AE40" s="39"/>
+      <c r="AF40" s="39"/>
+      <c r="AG40" s="39"/>
+      <c r="AH40" s="39"/>
+      <c r="AI40" s="39"/>
+      <c r="AJ40" s="39"/>
+      <c r="AK40" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="AL40" s="87"/>
-      <c r="AM40" s="87"/>
-      <c r="AN40" s="87"/>
+      <c r="AL40" s="39"/>
+      <c r="AM40" s="39"/>
+      <c r="AN40" s="39"/>
     </row>
     <row r="41" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A41" s="92" t="s">
+      <c r="A41" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="120" t="s">
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="25"/>
-      <c r="P41" s="26"/>
-      <c r="Q41" s="122" t="s">
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="R41" s="25"/>
-      <c r="S41" s="25"/>
-      <c r="T41" s="25"/>
-      <c r="U41" s="92" t="s">
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="V41" s="25"/>
-      <c r="W41" s="25"/>
-      <c r="X41" s="25"/>
-      <c r="Y41" s="25"/>
-      <c r="Z41" s="25"/>
-      <c r="AA41" s="25"/>
-      <c r="AB41" s="26"/>
-      <c r="AC41" s="120" t="s">
+      <c r="V41" s="19"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="19"/>
+      <c r="Y41" s="19"/>
+      <c r="Z41" s="19"/>
+      <c r="AA41" s="19"/>
+      <c r="AB41" s="20"/>
+      <c r="AC41" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="AD41" s="90"/>
-      <c r="AE41" s="90"/>
-      <c r="AF41" s="90"/>
-      <c r="AG41" s="90"/>
-      <c r="AH41" s="90"/>
-      <c r="AI41" s="90"/>
-      <c r="AJ41" s="91"/>
-      <c r="AK41" s="123" t="s">
+      <c r="AD41" s="42"/>
+      <c r="AE41" s="42"/>
+      <c r="AF41" s="42"/>
+      <c r="AG41" s="42"/>
+      <c r="AH41" s="42"/>
+      <c r="AI41" s="42"/>
+      <c r="AJ41" s="43"/>
+      <c r="AK41" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="AL41" s="25"/>
-      <c r="AM41" s="25"/>
-      <c r="AN41" s="26"/>
+      <c r="AL41" s="19"/>
+      <c r="AM41" s="19"/>
+      <c r="AN41" s="20"/>
     </row>
     <row r="42" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A42" s="92" t="s">
+      <c r="A42" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="120" t="s">
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="25"/>
-      <c r="O42" s="25"/>
-      <c r="P42" s="26"/>
-      <c r="Q42" s="122" t="s">
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="R42" s="25"/>
-      <c r="S42" s="25"/>
-      <c r="T42" s="25"/>
-      <c r="U42" s="121" t="s">
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="V42" s="25"/>
-      <c r="W42" s="25"/>
-      <c r="X42" s="25"/>
-      <c r="Y42" s="25"/>
-      <c r="Z42" s="25"/>
-      <c r="AA42" s="25"/>
-      <c r="AB42" s="25"/>
-      <c r="AC42" s="120" t="s">
+      <c r="V42" s="19"/>
+      <c r="W42" s="19"/>
+      <c r="X42" s="19"/>
+      <c r="Y42" s="19"/>
+      <c r="Z42" s="19"/>
+      <c r="AA42" s="19"/>
+      <c r="AB42" s="19"/>
+      <c r="AC42" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="AD42" s="25"/>
-      <c r="AE42" s="25"/>
-      <c r="AF42" s="25"/>
-      <c r="AG42" s="25"/>
-      <c r="AH42" s="25"/>
-      <c r="AI42" s="25"/>
-      <c r="AJ42" s="26"/>
-      <c r="AK42" s="124" t="s">
+      <c r="AD42" s="19"/>
+      <c r="AE42" s="19"/>
+      <c r="AF42" s="19"/>
+      <c r="AG42" s="19"/>
+      <c r="AH42" s="19"/>
+      <c r="AI42" s="19"/>
+      <c r="AJ42" s="20"/>
+      <c r="AK42" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="AL42" s="25"/>
-      <c r="AM42" s="25"/>
-      <c r="AN42" s="26"/>
+      <c r="AL42" s="19"/>
+      <c r="AM42" s="19"/>
+      <c r="AN42" s="20"/>
     </row>
     <row r="43" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A43" s="92" t="s">
+      <c r="A43" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="120" t="s">
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="25"/>
-      <c r="O43" s="25"/>
-      <c r="P43" s="25"/>
-      <c r="Q43" s="122" t="s">
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="R43" s="25"/>
-      <c r="S43" s="25"/>
-      <c r="T43" s="25"/>
-      <c r="U43" s="121" t="s">
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="V43" s="25"/>
-      <c r="W43" s="25"/>
-      <c r="X43" s="25"/>
-      <c r="Y43" s="25"/>
-      <c r="Z43" s="25"/>
-      <c r="AA43" s="25"/>
-      <c r="AB43" s="25"/>
-      <c r="AC43" s="120" t="s">
+      <c r="V43" s="19"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="19"/>
+      <c r="Y43" s="19"/>
+      <c r="Z43" s="19"/>
+      <c r="AA43" s="19"/>
+      <c r="AB43" s="19"/>
+      <c r="AC43" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="AD43" s="25"/>
-      <c r="AE43" s="25"/>
-      <c r="AF43" s="25"/>
-      <c r="AG43" s="25"/>
-      <c r="AH43" s="25"/>
-      <c r="AI43" s="25"/>
-      <c r="AJ43" s="26"/>
-      <c r="AK43" s="124" t="s">
+      <c r="AD43" s="19"/>
+      <c r="AE43" s="19"/>
+      <c r="AF43" s="19"/>
+      <c r="AG43" s="19"/>
+      <c r="AH43" s="19"/>
+      <c r="AI43" s="19"/>
+      <c r="AJ43" s="20"/>
+      <c r="AK43" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="AL43" s="25"/>
-      <c r="AM43" s="25"/>
-      <c r="AN43" s="26"/>
+      <c r="AL43" s="19"/>
+      <c r="AM43" s="19"/>
+      <c r="AN43" s="20"/>
     </row>
     <row r="44" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A44" s="121" t="s">
+      <c r="A44" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="120" t="s">
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="25"/>
-      <c r="O44" s="25"/>
-      <c r="P44" s="25"/>
-      <c r="Q44" s="122" t="s">
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="R44" s="25"/>
-      <c r="S44" s="25"/>
-      <c r="T44" s="25"/>
-      <c r="U44" s="121" t="s">
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="V44" s="25"/>
-      <c r="W44" s="25"/>
-      <c r="X44" s="25"/>
-      <c r="Y44" s="25"/>
-      <c r="Z44" s="25"/>
-      <c r="AA44" s="25"/>
-      <c r="AB44" s="25"/>
-      <c r="AC44" s="120" t="s">
+      <c r="V44" s="19"/>
+      <c r="W44" s="19"/>
+      <c r="X44" s="19"/>
+      <c r="Y44" s="19"/>
+      <c r="Z44" s="19"/>
+      <c r="AA44" s="19"/>
+      <c r="AB44" s="19"/>
+      <c r="AC44" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="AD44" s="25"/>
-      <c r="AE44" s="25"/>
-      <c r="AF44" s="25"/>
-      <c r="AG44" s="25"/>
-      <c r="AH44" s="25"/>
-      <c r="AI44" s="25"/>
-      <c r="AJ44" s="26"/>
-      <c r="AK44" s="124" t="s">
+      <c r="AD44" s="19"/>
+      <c r="AE44" s="19"/>
+      <c r="AF44" s="19"/>
+      <c r="AG44" s="19"/>
+      <c r="AH44" s="19"/>
+      <c r="AI44" s="19"/>
+      <c r="AJ44" s="20"/>
+      <c r="AK44" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="AL44" s="25"/>
-      <c r="AM44" s="25"/>
-      <c r="AN44" s="26"/>
+      <c r="AL44" s="19"/>
+      <c r="AM44" s="19"/>
+      <c r="AN44" s="20"/>
     </row>
     <row r="45" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A45" s="121" t="s">
+      <c r="A45" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="120" t="s">
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="25"/>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="122" t="s">
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="R45" s="25"/>
-      <c r="S45" s="25"/>
-      <c r="T45" s="25"/>
-      <c r="U45" s="121" t="s">
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="19"/>
+      <c r="U45" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="V45" s="25"/>
-      <c r="W45" s="25"/>
-      <c r="X45" s="25"/>
-      <c r="Y45" s="25"/>
-      <c r="Z45" s="25"/>
-      <c r="AA45" s="25"/>
-      <c r="AB45" s="26"/>
-      <c r="AC45" s="120" t="s">
+      <c r="V45" s="19"/>
+      <c r="W45" s="19"/>
+      <c r="X45" s="19"/>
+      <c r="Y45" s="19"/>
+      <c r="Z45" s="19"/>
+      <c r="AA45" s="19"/>
+      <c r="AB45" s="20"/>
+      <c r="AC45" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="AD45" s="25"/>
-      <c r="AE45" s="25"/>
-      <c r="AF45" s="25"/>
-      <c r="AG45" s="25"/>
-      <c r="AH45" s="25"/>
-      <c r="AI45" s="25"/>
-      <c r="AJ45" s="26"/>
-      <c r="AK45" s="124" t="s">
+      <c r="AD45" s="19"/>
+      <c r="AE45" s="19"/>
+      <c r="AF45" s="19"/>
+      <c r="AG45" s="19"/>
+      <c r="AH45" s="19"/>
+      <c r="AI45" s="19"/>
+      <c r="AJ45" s="20"/>
+      <c r="AK45" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="AL45" s="25"/>
-      <c r="AM45" s="25"/>
-      <c r="AN45" s="26"/>
+      <c r="AL45" s="19"/>
+      <c r="AM45" s="19"/>
+      <c r="AN45" s="20"/>
     </row>
     <row r="46" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A46" s="121" t="s">
+      <c r="A46" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="120" t="s">
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="25"/>
-      <c r="P46" s="25"/>
-      <c r="Q46" s="122" t="s">
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="R46" s="25"/>
-      <c r="S46" s="25"/>
-      <c r="T46" s="25"/>
-      <c r="U46" s="121" t="s">
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="19"/>
+      <c r="U46" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="V46" s="25"/>
-      <c r="W46" s="25"/>
-      <c r="X46" s="25"/>
-      <c r="Y46" s="25"/>
-      <c r="Z46" s="25"/>
-      <c r="AA46" s="25"/>
-      <c r="AB46" s="26"/>
-      <c r="AC46" s="120" t="s">
+      <c r="V46" s="19"/>
+      <c r="W46" s="19"/>
+      <c r="X46" s="19"/>
+      <c r="Y46" s="19"/>
+      <c r="Z46" s="19"/>
+      <c r="AA46" s="19"/>
+      <c r="AB46" s="20"/>
+      <c r="AC46" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="AD46" s="25"/>
-      <c r="AE46" s="25"/>
-      <c r="AF46" s="25"/>
-      <c r="AG46" s="25"/>
-      <c r="AH46" s="25"/>
-      <c r="AI46" s="25"/>
-      <c r="AJ46" s="26"/>
-      <c r="AK46" s="124" t="s">
+      <c r="AD46" s="19"/>
+      <c r="AE46" s="19"/>
+      <c r="AF46" s="19"/>
+      <c r="AG46" s="19"/>
+      <c r="AH46" s="19"/>
+      <c r="AI46" s="19"/>
+      <c r="AJ46" s="20"/>
+      <c r="AK46" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="AL46" s="25"/>
-      <c r="AM46" s="25"/>
-      <c r="AN46" s="26"/>
+      <c r="AL46" s="19"/>
+      <c r="AM46" s="19"/>
+      <c r="AN46" s="20"/>
     </row>
     <row r="47" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A47" s="121" t="s">
+      <c r="A47" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="120" t="s">
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="25"/>
-      <c r="P47" s="25"/>
-      <c r="Q47" s="122" t="s">
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="R47" s="25"/>
-      <c r="S47" s="25"/>
-      <c r="T47" s="25"/>
-      <c r="U47" s="88" t="s">
+      <c r="R47" s="19"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="19"/>
+      <c r="U47" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="V47" s="87"/>
-      <c r="W47" s="87"/>
-      <c r="X47" s="87"/>
-      <c r="Y47" s="87"/>
-      <c r="Z47" s="87"/>
-      <c r="AA47" s="87"/>
-      <c r="AB47" s="87"/>
-      <c r="AC47" s="87"/>
-      <c r="AD47" s="87"/>
-      <c r="AE47" s="87"/>
-      <c r="AF47" s="87"/>
-      <c r="AG47" s="87"/>
-      <c r="AH47" s="87"/>
-      <c r="AI47" s="87"/>
-      <c r="AJ47" s="87"/>
-      <c r="AK47" s="86" t="s">
+      <c r="V47" s="39"/>
+      <c r="W47" s="39"/>
+      <c r="X47" s="39"/>
+      <c r="Y47" s="39"/>
+      <c r="Z47" s="39"/>
+      <c r="AA47" s="39"/>
+      <c r="AB47" s="39"/>
+      <c r="AC47" s="39"/>
+      <c r="AD47" s="39"/>
+      <c r="AE47" s="39"/>
+      <c r="AF47" s="39"/>
+      <c r="AG47" s="39"/>
+      <c r="AH47" s="39"/>
+      <c r="AI47" s="39"/>
+      <c r="AJ47" s="39"/>
+      <c r="AK47" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="AL47" s="87"/>
-      <c r="AM47" s="87"/>
-      <c r="AN47" s="87"/>
+      <c r="AL47" s="39"/>
+      <c r="AM47" s="39"/>
+      <c r="AN47" s="39"/>
     </row>
     <row r="48" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A48" s="121" t="s">
+      <c r="A48" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="120" t="s">
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="25"/>
-      <c r="O48" s="25"/>
-      <c r="P48" s="25"/>
-      <c r="Q48" s="122" t="s">
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="R48" s="25"/>
-      <c r="S48" s="25"/>
-      <c r="T48" s="25"/>
-      <c r="U48" s="92" t="s">
+      <c r="R48" s="19"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="19"/>
+      <c r="U48" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="V48" s="25"/>
-      <c r="W48" s="25"/>
-      <c r="X48" s="25"/>
-      <c r="Y48" s="25"/>
-      <c r="Z48" s="25"/>
-      <c r="AA48" s="25"/>
-      <c r="AB48" s="25"/>
-      <c r="AC48" s="120" t="s">
+      <c r="V48" s="19"/>
+      <c r="W48" s="19"/>
+      <c r="X48" s="19"/>
+      <c r="Y48" s="19"/>
+      <c r="Z48" s="19"/>
+      <c r="AA48" s="19"/>
+      <c r="AB48" s="19"/>
+      <c r="AC48" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="AD48" s="25"/>
-      <c r="AE48" s="25"/>
-      <c r="AF48" s="25"/>
-      <c r="AG48" s="25"/>
-      <c r="AH48" s="25"/>
-      <c r="AI48" s="25"/>
-      <c r="AJ48" s="26"/>
-      <c r="AK48" s="123" t="s">
+      <c r="AD48" s="19"/>
+      <c r="AE48" s="19"/>
+      <c r="AF48" s="19"/>
+      <c r="AG48" s="19"/>
+      <c r="AH48" s="19"/>
+      <c r="AI48" s="19"/>
+      <c r="AJ48" s="20"/>
+      <c r="AK48" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="AL48" s="25"/>
-      <c r="AM48" s="25"/>
-      <c r="AN48" s="26"/>
+      <c r="AL48" s="19"/>
+      <c r="AM48" s="19"/>
+      <c r="AN48" s="20"/>
     </row>
     <row r="49" spans="1:40" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A49" s="121" t="s">
+      <c r="A49" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="120" t="s">
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="25"/>
-      <c r="O49" s="25"/>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="122" t="s">
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="R49" s="25"/>
-      <c r="S49" s="25"/>
-      <c r="T49" s="25"/>
-      <c r="U49" s="92" t="s">
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="19"/>
+      <c r="U49" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="V49" s="25"/>
-      <c r="W49" s="25"/>
-      <c r="X49" s="25"/>
-      <c r="Y49" s="25"/>
-      <c r="Z49" s="25"/>
-      <c r="AA49" s="25"/>
-      <c r="AB49" s="25"/>
-      <c r="AC49" s="127" t="s">
+      <c r="V49" s="19"/>
+      <c r="W49" s="19"/>
+      <c r="X49" s="19"/>
+      <c r="Y49" s="19"/>
+      <c r="Z49" s="19"/>
+      <c r="AA49" s="19"/>
+      <c r="AB49" s="19"/>
+      <c r="AC49" s="133" t="s">
         <v>130</v>
       </c>
-      <c r="AD49" s="125"/>
-      <c r="AE49" s="125"/>
-      <c r="AF49" s="125"/>
-      <c r="AG49" s="125"/>
-      <c r="AH49" s="125"/>
-      <c r="AI49" s="125"/>
-      <c r="AJ49" s="126"/>
-      <c r="AK49" s="123" t="s">
+      <c r="AD49" s="134"/>
+      <c r="AE49" s="134"/>
+      <c r="AF49" s="134"/>
+      <c r="AG49" s="134"/>
+      <c r="AH49" s="134"/>
+      <c r="AI49" s="134"/>
+      <c r="AJ49" s="135"/>
+      <c r="AK49" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="AL49" s="25"/>
-      <c r="AM49" s="25"/>
-      <c r="AN49" s="26"/>
+      <c r="AL49" s="19"/>
+      <c r="AM49" s="19"/>
+      <c r="AN49" s="20"/>
     </row>
     <row r="50" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A50" s="88" t="s">
+      <c r="A50" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="87"/>
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="F50" s="87"/>
-      <c r="G50" s="87"/>
-      <c r="H50" s="87"/>
-      <c r="I50" s="87"/>
-      <c r="J50" s="87"/>
-      <c r="K50" s="87"/>
-      <c r="L50" s="87"/>
-      <c r="M50" s="87"/>
-      <c r="N50" s="87"/>
-      <c r="O50" s="87"/>
-      <c r="P50" s="87"/>
-      <c r="Q50" s="86" t="s">
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="39"/>
+      <c r="O50" s="39"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="R50" s="87"/>
-      <c r="S50" s="87"/>
-      <c r="T50" s="87"/>
-      <c r="U50" s="121" t="s">
+      <c r="R50" s="39"/>
+      <c r="S50" s="39"/>
+      <c r="T50" s="39"/>
+      <c r="U50" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="V50" s="25"/>
-      <c r="W50" s="25"/>
-      <c r="X50" s="25"/>
-      <c r="Y50" s="25"/>
-      <c r="Z50" s="25"/>
-      <c r="AA50" s="25"/>
-      <c r="AB50" s="25"/>
-      <c r="AC50" s="120" t="s">
+      <c r="V50" s="19"/>
+      <c r="W50" s="19"/>
+      <c r="X50" s="19"/>
+      <c r="Y50" s="19"/>
+      <c r="Z50" s="19"/>
+      <c r="AA50" s="19"/>
+      <c r="AB50" s="19"/>
+      <c r="AC50" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="AD50" s="25"/>
-      <c r="AE50" s="25"/>
-      <c r="AF50" s="25"/>
-      <c r="AG50" s="25"/>
-      <c r="AH50" s="25"/>
-      <c r="AI50" s="25"/>
-      <c r="AJ50" s="26"/>
-      <c r="AK50" s="124" t="s">
+      <c r="AD50" s="19"/>
+      <c r="AE50" s="19"/>
+      <c r="AF50" s="19"/>
+      <c r="AG50" s="19"/>
+      <c r="AH50" s="19"/>
+      <c r="AI50" s="19"/>
+      <c r="AJ50" s="20"/>
+      <c r="AK50" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="AL50" s="25"/>
-      <c r="AM50" s="25"/>
-      <c r="AN50" s="26"/>
+      <c r="AL50" s="19"/>
+      <c r="AM50" s="19"/>
+      <c r="AN50" s="20"/>
     </row>
     <row r="51" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A51" s="92" t="s">
+      <c r="A51" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="120" t="s">
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="25"/>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="123" t="s">
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="R51" s="25"/>
-      <c r="S51" s="25"/>
-      <c r="T51" s="25"/>
-      <c r="U51" s="121" t="s">
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="V51" s="25"/>
-      <c r="W51" s="25"/>
-      <c r="X51" s="25"/>
-      <c r="Y51" s="25"/>
-      <c r="Z51" s="25"/>
-      <c r="AA51" s="25"/>
-      <c r="AB51" s="25"/>
-      <c r="AC51" s="120" t="s">
+      <c r="V51" s="19"/>
+      <c r="W51" s="19"/>
+      <c r="X51" s="19"/>
+      <c r="Y51" s="19"/>
+      <c r="Z51" s="19"/>
+      <c r="AA51" s="19"/>
+      <c r="AB51" s="19"/>
+      <c r="AC51" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="AD51" s="25"/>
-      <c r="AE51" s="25"/>
-      <c r="AF51" s="25"/>
-      <c r="AG51" s="25"/>
-      <c r="AH51" s="25"/>
-      <c r="AI51" s="25"/>
-      <c r="AJ51" s="26"/>
-      <c r="AK51" s="124" t="s">
+      <c r="AD51" s="19"/>
+      <c r="AE51" s="19"/>
+      <c r="AF51" s="19"/>
+      <c r="AG51" s="19"/>
+      <c r="AH51" s="19"/>
+      <c r="AI51" s="19"/>
+      <c r="AJ51" s="20"/>
+      <c r="AK51" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="AL51" s="25"/>
-      <c r="AM51" s="25"/>
-      <c r="AN51" s="26"/>
+      <c r="AL51" s="19"/>
+      <c r="AM51" s="19"/>
+      <c r="AN51" s="20"/>
     </row>
     <row r="52" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A52" s="92" t="s">
+      <c r="A52" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="120" t="s">
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="25"/>
-      <c r="O52" s="25"/>
-      <c r="P52" s="25"/>
-      <c r="Q52" s="123" t="s">
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="R52" s="25"/>
-      <c r="S52" s="25"/>
-      <c r="T52" s="25"/>
-      <c r="U52" s="121" t="s">
+      <c r="R52" s="19"/>
+      <c r="S52" s="19"/>
+      <c r="T52" s="19"/>
+      <c r="U52" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="V52" s="25"/>
-      <c r="W52" s="25"/>
-      <c r="X52" s="25"/>
-      <c r="Y52" s="25"/>
-      <c r="Z52" s="25"/>
-      <c r="AA52" s="25"/>
-      <c r="AB52" s="25"/>
-      <c r="AC52" s="120" t="s">
+      <c r="V52" s="19"/>
+      <c r="W52" s="19"/>
+      <c r="X52" s="19"/>
+      <c r="Y52" s="19"/>
+      <c r="Z52" s="19"/>
+      <c r="AA52" s="19"/>
+      <c r="AB52" s="19"/>
+      <c r="AC52" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="AD52" s="25"/>
-      <c r="AE52" s="25"/>
-      <c r="AF52" s="25"/>
-      <c r="AG52" s="25"/>
-      <c r="AH52" s="25"/>
-      <c r="AI52" s="25"/>
-      <c r="AJ52" s="25"/>
-      <c r="AK52" s="124" t="s">
+      <c r="AD52" s="19"/>
+      <c r="AE52" s="19"/>
+      <c r="AF52" s="19"/>
+      <c r="AG52" s="19"/>
+      <c r="AH52" s="19"/>
+      <c r="AI52" s="19"/>
+      <c r="AJ52" s="19"/>
+      <c r="AK52" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="AL52" s="25"/>
-      <c r="AM52" s="25"/>
-      <c r="AN52" s="25"/>
+      <c r="AL52" s="19"/>
+      <c r="AM52" s="19"/>
+      <c r="AN52" s="19"/>
     </row>
     <row r="53" spans="1:40" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A53" s="92" t="s">
+      <c r="A53" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="120" t="s">
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="J53" s="25"/>
-      <c r="K53" s="25"/>
-      <c r="L53" s="25"/>
-      <c r="M53" s="25"/>
-      <c r="N53" s="25"/>
-      <c r="O53" s="25"/>
-      <c r="P53" s="25"/>
-      <c r="Q53" s="123" t="s">
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="R53" s="25"/>
-      <c r="S53" s="25"/>
-      <c r="T53" s="25"/>
-      <c r="U53" s="121" t="s">
+      <c r="R53" s="19"/>
+      <c r="S53" s="19"/>
+      <c r="T53" s="19"/>
+      <c r="U53" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="V53" s="25"/>
-      <c r="W53" s="25"/>
-      <c r="X53" s="25"/>
-      <c r="Y53" s="25"/>
-      <c r="Z53" s="25"/>
-      <c r="AA53" s="25"/>
-      <c r="AB53" s="25"/>
-      <c r="AC53" s="120" t="s">
+      <c r="V53" s="19"/>
+      <c r="W53" s="19"/>
+      <c r="X53" s="19"/>
+      <c r="Y53" s="19"/>
+      <c r="Z53" s="19"/>
+      <c r="AA53" s="19"/>
+      <c r="AB53" s="19"/>
+      <c r="AC53" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="AD53" s="25"/>
-      <c r="AE53" s="25"/>
-      <c r="AF53" s="25"/>
-      <c r="AG53" s="25"/>
-      <c r="AH53" s="25"/>
-      <c r="AI53" s="25"/>
-      <c r="AJ53" s="25"/>
-      <c r="AK53" s="124" t="s">
+      <c r="AD53" s="19"/>
+      <c r="AE53" s="19"/>
+      <c r="AF53" s="19"/>
+      <c r="AG53" s="19"/>
+      <c r="AH53" s="19"/>
+      <c r="AI53" s="19"/>
+      <c r="AJ53" s="19"/>
+      <c r="AK53" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="AL53" s="25"/>
-      <c r="AM53" s="25"/>
-      <c r="AN53" s="25"/>
+      <c r="AL53" s="19"/>
+      <c r="AM53" s="19"/>
+      <c r="AN53" s="19"/>
     </row>
     <row r="54" spans="1:40" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A54" s="132" t="s">
+      <c r="A54" s="155" t="s">
         <v>147</v>
       </c>
-      <c r="B54" s="128"/>
-      <c r="C54" s="128"/>
-      <c r="D54" s="128"/>
-      <c r="E54" s="128"/>
-      <c r="F54" s="128"/>
-      <c r="G54" s="128"/>
-      <c r="H54" s="129"/>
-      <c r="I54" s="120" t="s">
+      <c r="B54" s="156"/>
+      <c r="C54" s="156"/>
+      <c r="D54" s="156"/>
+      <c r="E54" s="156"/>
+      <c r="F54" s="156"/>
+      <c r="G54" s="156"/>
+      <c r="H54" s="157"/>
+      <c r="I54" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="J54" s="25"/>
-      <c r="K54" s="25"/>
-      <c r="L54" s="25"/>
-      <c r="M54" s="25"/>
-      <c r="N54" s="25"/>
-      <c r="O54" s="25"/>
-      <c r="P54" s="25"/>
-      <c r="Q54" s="123" t="s">
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="R54" s="25"/>
-      <c r="S54" s="25"/>
-      <c r="T54" s="25"/>
-      <c r="U54" s="97" t="s">
+      <c r="R54" s="19"/>
+      <c r="S54" s="19"/>
+      <c r="T54" s="19"/>
+      <c r="U54" s="131" t="s">
         <v>56</v>
       </c>
-      <c r="V54" s="21"/>
-      <c r="W54" s="21"/>
-      <c r="X54" s="21"/>
-      <c r="Y54" s="21"/>
-      <c r="Z54" s="21"/>
-      <c r="AA54" s="21"/>
-      <c r="AB54" s="21"/>
-      <c r="AC54" s="21"/>
-      <c r="AD54" s="21"/>
-      <c r="AE54" s="21"/>
-      <c r="AF54" s="21"/>
-      <c r="AG54" s="21"/>
-      <c r="AH54" s="21"/>
-      <c r="AI54" s="21"/>
-      <c r="AJ54" s="55"/>
-      <c r="AK54" s="83" t="s">
+      <c r="V54" s="28"/>
+      <c r="W54" s="28"/>
+      <c r="X54" s="28"/>
+      <c r="Y54" s="28"/>
+      <c r="Z54" s="28"/>
+      <c r="AA54" s="28"/>
+      <c r="AB54" s="28"/>
+      <c r="AC54" s="28"/>
+      <c r="AD54" s="28"/>
+      <c r="AE54" s="28"/>
+      <c r="AF54" s="28"/>
+      <c r="AG54" s="28"/>
+      <c r="AH54" s="28"/>
+      <c r="AI54" s="28"/>
+      <c r="AJ54" s="63"/>
+      <c r="AK54" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="AL54" s="33"/>
-      <c r="AM54" s="33"/>
-      <c r="AN54" s="33"/>
+      <c r="AL54" s="34"/>
+      <c r="AM54" s="34"/>
+      <c r="AN54" s="34"/>
     </row>
     <row r="55" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A55" s="133" t="s">
+      <c r="A55" s="158" t="s">
         <v>148</v>
       </c>
-      <c r="B55" s="130"/>
-      <c r="C55" s="130"/>
-      <c r="D55" s="130"/>
-      <c r="E55" s="130"/>
-      <c r="F55" s="130"/>
-      <c r="G55" s="130"/>
-      <c r="H55" s="131"/>
-      <c r="I55" s="120" t="s">
+      <c r="B55" s="159"/>
+      <c r="C55" s="159"/>
+      <c r="D55" s="159"/>
+      <c r="E55" s="159"/>
+      <c r="F55" s="159"/>
+      <c r="G55" s="159"/>
+      <c r="H55" s="160"/>
+      <c r="I55" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="J55" s="25"/>
-      <c r="K55" s="25"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="25"/>
-      <c r="N55" s="25"/>
-      <c r="O55" s="25"/>
-      <c r="P55" s="25"/>
-      <c r="Q55" s="123" t="s">
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="R55" s="25"/>
-      <c r="S55" s="25"/>
-      <c r="T55" s="25"/>
-      <c r="U55" s="120" t="s">
+      <c r="R55" s="19"/>
+      <c r="S55" s="19"/>
+      <c r="T55" s="19"/>
+      <c r="U55" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="V55" s="25"/>
-      <c r="W55" s="25"/>
-      <c r="X55" s="25"/>
-      <c r="Y55" s="25"/>
-      <c r="Z55" s="25"/>
-      <c r="AA55" s="25"/>
-      <c r="AB55" s="26"/>
-      <c r="AC55" s="147" t="s">
+      <c r="V55" s="19"/>
+      <c r="W55" s="19"/>
+      <c r="X55" s="19"/>
+      <c r="Y55" s="19"/>
+      <c r="Z55" s="19"/>
+      <c r="AA55" s="19"/>
+      <c r="AB55" s="20"/>
+      <c r="AC55" s="132" t="s">
         <v>203</v>
       </c>
-      <c r="AD55" s="33"/>
-      <c r="AE55" s="33"/>
-      <c r="AF55" s="33"/>
-      <c r="AG55" s="33"/>
-      <c r="AH55" s="33"/>
-      <c r="AI55" s="33"/>
-      <c r="AJ55" s="33"/>
-      <c r="AK55" s="124" t="s">
+      <c r="AD55" s="34"/>
+      <c r="AE55" s="34"/>
+      <c r="AF55" s="34"/>
+      <c r="AG55" s="34"/>
+      <c r="AH55" s="34"/>
+      <c r="AI55" s="34"/>
+      <c r="AJ55" s="34"/>
+      <c r="AK55" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AL55" s="25"/>
-      <c r="AM55" s="25"/>
-      <c r="AN55" s="26"/>
+      <c r="AL55" s="19"/>
+      <c r="AM55" s="19"/>
+      <c r="AN55" s="20"/>
     </row>
     <row r="56" spans="1:40" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A56" s="121" t="s">
+      <c r="A56" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="120" t="s">
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="J56" s="25"/>
-      <c r="K56" s="25"/>
-      <c r="L56" s="25"/>
-      <c r="M56" s="25"/>
-      <c r="N56" s="25"/>
-      <c r="O56" s="25"/>
-      <c r="P56" s="25"/>
-      <c r="Q56" s="124" t="s">
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="R56" s="25"/>
-      <c r="S56" s="25"/>
-      <c r="T56" s="25"/>
-      <c r="U56" s="120" t="s">
+      <c r="R56" s="19"/>
+      <c r="S56" s="19"/>
+      <c r="T56" s="19"/>
+      <c r="U56" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="V56" s="25"/>
-      <c r="W56" s="25"/>
-      <c r="X56" s="25"/>
-      <c r="Y56" s="25"/>
-      <c r="Z56" s="25"/>
-      <c r="AA56" s="25"/>
-      <c r="AB56" s="26"/>
-      <c r="AC56" s="120" t="s">
+      <c r="V56" s="19"/>
+      <c r="W56" s="19"/>
+      <c r="X56" s="19"/>
+      <c r="Y56" s="19"/>
+      <c r="Z56" s="19"/>
+      <c r="AA56" s="19"/>
+      <c r="AB56" s="20"/>
+      <c r="AC56" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="AD56" s="25"/>
-      <c r="AE56" s="25"/>
-      <c r="AF56" s="25"/>
-      <c r="AG56" s="25"/>
-      <c r="AH56" s="25"/>
-      <c r="AI56" s="25"/>
-      <c r="AJ56" s="26"/>
-      <c r="AK56" s="124" t="s">
+      <c r="AD56" s="19"/>
+      <c r="AE56" s="19"/>
+      <c r="AF56" s="19"/>
+      <c r="AG56" s="19"/>
+      <c r="AH56" s="19"/>
+      <c r="AI56" s="19"/>
+      <c r="AJ56" s="20"/>
+      <c r="AK56" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="AL56" s="25"/>
-      <c r="AM56" s="25"/>
-      <c r="AN56" s="26"/>
+      <c r="AL56" s="19"/>
+      <c r="AM56" s="19"/>
+      <c r="AN56" s="20"/>
     </row>
     <row r="57" spans="1:40" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A57" s="88" t="s">
+      <c r="A57" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B57" s="87"/>
-      <c r="C57" s="87"/>
-      <c r="D57" s="87"/>
-      <c r="E57" s="87"/>
-      <c r="F57" s="87"/>
-      <c r="G57" s="87"/>
-      <c r="H57" s="87"/>
-      <c r="I57" s="87"/>
-      <c r="J57" s="87"/>
-      <c r="K57" s="87"/>
-      <c r="L57" s="87"/>
-      <c r="M57" s="87"/>
-      <c r="N57" s="87"/>
-      <c r="O57" s="87"/>
-      <c r="P57" s="87"/>
-      <c r="Q57" s="140" t="s">
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="39"/>
+      <c r="K57" s="39"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="39"/>
+      <c r="O57" s="39"/>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="154" t="s">
         <v>45</v>
       </c>
-      <c r="R57" s="23"/>
-      <c r="S57" s="23"/>
-      <c r="T57" s="23"/>
-      <c r="U57" s="97" t="s">
+      <c r="R57" s="31"/>
+      <c r="S57" s="31"/>
+      <c r="T57" s="31"/>
+      <c r="U57" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="V57" s="21"/>
-      <c r="W57" s="21"/>
-      <c r="X57" s="21"/>
-      <c r="Y57" s="21"/>
-      <c r="Z57" s="21"/>
-      <c r="AA57" s="21"/>
-      <c r="AB57" s="21"/>
-      <c r="AC57" s="21"/>
-      <c r="AD57" s="21"/>
-      <c r="AE57" s="21"/>
-      <c r="AF57" s="21"/>
-      <c r="AG57" s="21"/>
-      <c r="AH57" s="21"/>
-      <c r="AI57" s="21"/>
-      <c r="AJ57" s="55"/>
-      <c r="AK57" s="100" t="s">
+      <c r="V57" s="28"/>
+      <c r="W57" s="28"/>
+      <c r="X57" s="28"/>
+      <c r="Y57" s="28"/>
+      <c r="Z57" s="28"/>
+      <c r="AA57" s="28"/>
+      <c r="AB57" s="28"/>
+      <c r="AC57" s="28"/>
+      <c r="AD57" s="28"/>
+      <c r="AE57" s="28"/>
+      <c r="AF57" s="28"/>
+      <c r="AG57" s="28"/>
+      <c r="AH57" s="28"/>
+      <c r="AI57" s="28"/>
+      <c r="AJ57" s="63"/>
+      <c r="AK57" s="138" t="s">
         <v>45</v>
       </c>
-      <c r="AL57" s="55"/>
-      <c r="AM57" s="55"/>
-      <c r="AN57" s="55"/>
+      <c r="AL57" s="63"/>
+      <c r="AM57" s="63"/>
+      <c r="AN57" s="63"/>
     </row>
     <row r="58" spans="1:40" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A58" s="92" t="s">
+      <c r="A58" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="120" t="s">
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="J58" s="25"/>
-      <c r="K58" s="25"/>
-      <c r="L58" s="25"/>
-      <c r="M58" s="25"/>
-      <c r="N58" s="25"/>
-      <c r="O58" s="25"/>
-      <c r="P58" s="25"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="19"/>
+      <c r="P58" s="19"/>
       <c r="Q58" s="141" t="s">
         <v>96</v>
       </c>
-      <c r="R58" s="87"/>
-      <c r="S58" s="87"/>
-      <c r="T58" s="87"/>
-      <c r="U58" s="120" t="s">
+      <c r="R58" s="39"/>
+      <c r="S58" s="39"/>
+      <c r="T58" s="39"/>
+      <c r="U58" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="V58" s="25"/>
-      <c r="W58" s="25"/>
-      <c r="X58" s="25"/>
-      <c r="Y58" s="25"/>
-      <c r="Z58" s="25"/>
-      <c r="AA58" s="25"/>
-      <c r="AB58" s="26"/>
-      <c r="AC58" s="148" t="s">
+      <c r="V58" s="19"/>
+      <c r="W58" s="19"/>
+      <c r="X58" s="19"/>
+      <c r="Y58" s="19"/>
+      <c r="Z58" s="19"/>
+      <c r="AA58" s="19"/>
+      <c r="AB58" s="20"/>
+      <c r="AC58" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="AD58" s="87"/>
-      <c r="AE58" s="87"/>
-      <c r="AF58" s="87"/>
-      <c r="AG58" s="87"/>
-      <c r="AH58" s="87"/>
-      <c r="AI58" s="87"/>
-      <c r="AJ58" s="87"/>
+      <c r="AD58" s="39"/>
+      <c r="AE58" s="39"/>
+      <c r="AF58" s="39"/>
+      <c r="AG58" s="39"/>
+      <c r="AH58" s="39"/>
+      <c r="AI58" s="39"/>
+      <c r="AJ58" s="39"/>
       <c r="AK58" s="141" t="s">
         <v>207</v>
       </c>
-      <c r="AL58" s="87"/>
-      <c r="AM58" s="87"/>
-      <c r="AN58" s="151"/>
+      <c r="AL58" s="39"/>
+      <c r="AM58" s="39"/>
+      <c r="AN58" s="142"/>
     </row>
     <row r="59" spans="1:40" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A59" s="92" t="s">
+      <c r="A59" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="120" t="s">
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="J59" s="25"/>
-      <c r="K59" s="25"/>
-      <c r="L59" s="25"/>
-      <c r="M59" s="25"/>
-      <c r="N59" s="25"/>
-      <c r="O59" s="25"/>
-      <c r="P59" s="25"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
       <c r="Q59" s="141" t="s">
         <v>96</v>
       </c>
-      <c r="R59" s="87"/>
-      <c r="S59" s="87"/>
-      <c r="T59" s="87"/>
-      <c r="U59" s="120" t="s">
+      <c r="R59" s="39"/>
+      <c r="S59" s="39"/>
+      <c r="T59" s="39"/>
+      <c r="U59" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="V59" s="25"/>
-      <c r="W59" s="25"/>
-      <c r="X59" s="25"/>
-      <c r="Y59" s="25"/>
-      <c r="Z59" s="25"/>
-      <c r="AA59" s="25"/>
-      <c r="AB59" s="26"/>
-      <c r="AC59" s="143" t="s">
+      <c r="V59" s="19"/>
+      <c r="W59" s="19"/>
+      <c r="X59" s="19"/>
+      <c r="Y59" s="19"/>
+      <c r="Z59" s="19"/>
+      <c r="AA59" s="19"/>
+      <c r="AB59" s="20"/>
+      <c r="AC59" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="AD59" s="19"/>
-      <c r="AE59" s="19"/>
-      <c r="AF59" s="19"/>
-      <c r="AG59" s="19"/>
-      <c r="AH59" s="19"/>
-      <c r="AI59" s="19"/>
-      <c r="AJ59" s="19"/>
-      <c r="AK59" s="124" t="s">
+      <c r="AD59" s="25"/>
+      <c r="AE59" s="25"/>
+      <c r="AF59" s="25"/>
+      <c r="AG59" s="25"/>
+      <c r="AH59" s="25"/>
+      <c r="AI59" s="25"/>
+      <c r="AJ59" s="25"/>
+      <c r="AK59" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="AL59" s="149"/>
-      <c r="AM59" s="149"/>
-      <c r="AN59" s="152"/>
+      <c r="AL59" s="139"/>
+      <c r="AM59" s="139"/>
+      <c r="AN59" s="140"/>
     </row>
     <row r="60" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A60" s="92" t="s">
+      <c r="A60" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="120" t="s">
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="J60" s="25"/>
-      <c r="K60" s="25"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="25"/>
-      <c r="N60" s="25"/>
-      <c r="O60" s="25"/>
-      <c r="P60" s="25"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="19"/>
+      <c r="P60" s="19"/>
       <c r="Q60" s="141" t="s">
         <v>96</v>
       </c>
-      <c r="R60" s="87"/>
-      <c r="S60" s="87"/>
-      <c r="T60" s="87"/>
-      <c r="U60" s="120" t="s">
+      <c r="R60" s="39"/>
+      <c r="S60" s="39"/>
+      <c r="T60" s="39"/>
+      <c r="U60" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="V60" s="25"/>
-      <c r="W60" s="25"/>
-      <c r="X60" s="25"/>
-      <c r="Y60" s="25"/>
-      <c r="Z60" s="25"/>
-      <c r="AA60" s="25"/>
-      <c r="AB60" s="26"/>
-      <c r="AC60" s="143" t="s">
+      <c r="V60" s="19"/>
+      <c r="W60" s="19"/>
+      <c r="X60" s="19"/>
+      <c r="Y60" s="19"/>
+      <c r="Z60" s="19"/>
+      <c r="AA60" s="19"/>
+      <c r="AB60" s="20"/>
+      <c r="AC60" s="127" t="s">
         <v>221</v>
       </c>
-      <c r="AD60" s="19"/>
-      <c r="AE60" s="19"/>
-      <c r="AF60" s="19"/>
-      <c r="AG60" s="19"/>
-      <c r="AH60" s="19"/>
-      <c r="AI60" s="19"/>
-      <c r="AJ60" s="19"/>
-      <c r="AK60" s="124" t="s">
+      <c r="AD60" s="25"/>
+      <c r="AE60" s="25"/>
+      <c r="AF60" s="25"/>
+      <c r="AG60" s="25"/>
+      <c r="AH60" s="25"/>
+      <c r="AI60" s="25"/>
+      <c r="AJ60" s="25"/>
+      <c r="AK60" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="AL60" s="149"/>
-      <c r="AM60" s="149"/>
-      <c r="AN60" s="152"/>
+      <c r="AL60" s="139"/>
+      <c r="AM60" s="139"/>
+      <c r="AN60" s="140"/>
     </row>
     <row r="61" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A61" s="121" t="s">
+      <c r="A61" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="120" t="s">
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="J61" s="25"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="25"/>
-      <c r="M61" s="25"/>
-      <c r="N61" s="25"/>
-      <c r="O61" s="25"/>
-      <c r="P61" s="25"/>
-      <c r="Q61" s="123" t="s">
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="19"/>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="R61" s="25"/>
-      <c r="S61" s="25"/>
-      <c r="T61" s="25"/>
-      <c r="U61" s="120" t="s">
+      <c r="R61" s="19"/>
+      <c r="S61" s="19"/>
+      <c r="T61" s="19"/>
+      <c r="U61" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="V61" s="25"/>
-      <c r="W61" s="25"/>
-      <c r="X61" s="25"/>
-      <c r="Y61" s="25"/>
-      <c r="Z61" s="25"/>
-      <c r="AA61" s="25"/>
-      <c r="AB61" s="26"/>
-      <c r="AC61" s="143" t="s">
+      <c r="V61" s="19"/>
+      <c r="W61" s="19"/>
+      <c r="X61" s="19"/>
+      <c r="Y61" s="19"/>
+      <c r="Z61" s="19"/>
+      <c r="AA61" s="19"/>
+      <c r="AB61" s="20"/>
+      <c r="AC61" s="127" t="s">
         <v>222</v>
       </c>
-      <c r="AD61" s="19"/>
-      <c r="AE61" s="19"/>
-      <c r="AF61" s="19"/>
-      <c r="AG61" s="19"/>
-      <c r="AH61" s="19"/>
-      <c r="AI61" s="19"/>
-      <c r="AJ61" s="19"/>
-      <c r="AK61" s="124" t="s">
+      <c r="AD61" s="25"/>
+      <c r="AE61" s="25"/>
+      <c r="AF61" s="25"/>
+      <c r="AG61" s="25"/>
+      <c r="AH61" s="25"/>
+      <c r="AI61" s="25"/>
+      <c r="AJ61" s="25"/>
+      <c r="AK61" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="AL61" s="149"/>
-      <c r="AM61" s="149"/>
-      <c r="AN61" s="152"/>
+      <c r="AL61" s="139"/>
+      <c r="AM61" s="139"/>
+      <c r="AN61" s="140"/>
     </row>
     <row r="62" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A62" s="121" t="s">
+      <c r="A62" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="120" t="s">
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="J62" s="25"/>
-      <c r="K62" s="25"/>
-      <c r="L62" s="25"/>
-      <c r="M62" s="25"/>
-      <c r="N62" s="25"/>
-      <c r="O62" s="25"/>
-      <c r="P62" s="25"/>
-      <c r="Q62" s="123" t="s">
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="19"/>
+      <c r="P62" s="19"/>
+      <c r="Q62" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="R62" s="25"/>
-      <c r="S62" s="25"/>
-      <c r="T62" s="25"/>
-      <c r="U62" s="120" t="s">
+      <c r="R62" s="19"/>
+      <c r="S62" s="19"/>
+      <c r="T62" s="19"/>
+      <c r="U62" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="V62" s="25"/>
-      <c r="W62" s="25"/>
-      <c r="X62" s="25"/>
-      <c r="Y62" s="25"/>
-      <c r="Z62" s="25"/>
-      <c r="AA62" s="25"/>
-      <c r="AB62" s="26"/>
-      <c r="AC62" s="143" t="s">
+      <c r="V62" s="19"/>
+      <c r="W62" s="19"/>
+      <c r="X62" s="19"/>
+      <c r="Y62" s="19"/>
+      <c r="Z62" s="19"/>
+      <c r="AA62" s="19"/>
+      <c r="AB62" s="20"/>
+      <c r="AC62" s="127" t="s">
         <v>223</v>
       </c>
-      <c r="AD62" s="19"/>
-      <c r="AE62" s="19"/>
-      <c r="AF62" s="19"/>
-      <c r="AG62" s="19"/>
-      <c r="AH62" s="19"/>
-      <c r="AI62" s="19"/>
-      <c r="AJ62" s="19"/>
-      <c r="AK62" s="124" t="s">
+      <c r="AD62" s="25"/>
+      <c r="AE62" s="25"/>
+      <c r="AF62" s="25"/>
+      <c r="AG62" s="25"/>
+      <c r="AH62" s="25"/>
+      <c r="AI62" s="25"/>
+      <c r="AJ62" s="25"/>
+      <c r="AK62" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="AL62" s="149"/>
-      <c r="AM62" s="149"/>
-      <c r="AN62" s="152"/>
+      <c r="AL62" s="139"/>
+      <c r="AM62" s="139"/>
+      <c r="AN62" s="140"/>
     </row>
     <row r="63" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A63" s="121" t="s">
+      <c r="A63" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="120" t="s">
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="J63" s="25"/>
-      <c r="K63" s="25"/>
-      <c r="L63" s="25"/>
-      <c r="M63" s="25"/>
-      <c r="N63" s="25"/>
-      <c r="O63" s="25"/>
-      <c r="P63" s="25"/>
-      <c r="Q63" s="124" t="s">
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="19"/>
+      <c r="P63" s="19"/>
+      <c r="Q63" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="R63" s="25"/>
-      <c r="S63" s="25"/>
-      <c r="T63" s="25"/>
-      <c r="U63" s="120" t="s">
+      <c r="R63" s="19"/>
+      <c r="S63" s="19"/>
+      <c r="T63" s="19"/>
+      <c r="U63" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="V63" s="25"/>
-      <c r="W63" s="25"/>
-      <c r="X63" s="25"/>
-      <c r="Y63" s="25"/>
-      <c r="Z63" s="25"/>
-      <c r="AA63" s="25"/>
-      <c r="AB63" s="26"/>
-      <c r="AC63" s="143" t="s">
+      <c r="V63" s="19"/>
+      <c r="W63" s="19"/>
+      <c r="X63" s="19"/>
+      <c r="Y63" s="19"/>
+      <c r="Z63" s="19"/>
+      <c r="AA63" s="19"/>
+      <c r="AB63" s="20"/>
+      <c r="AC63" s="127" t="s">
         <v>224</v>
       </c>
-      <c r="AD63" s="19"/>
-      <c r="AE63" s="19"/>
-      <c r="AF63" s="19"/>
-      <c r="AG63" s="19"/>
-      <c r="AH63" s="19"/>
-      <c r="AI63" s="19"/>
-      <c r="AJ63" s="19"/>
-      <c r="AK63" s="145" t="s">
+      <c r="AD63" s="25"/>
+      <c r="AE63" s="25"/>
+      <c r="AF63" s="25"/>
+      <c r="AG63" s="25"/>
+      <c r="AH63" s="25"/>
+      <c r="AI63" s="25"/>
+      <c r="AJ63" s="25"/>
+      <c r="AK63" s="151" t="s">
         <v>218</v>
       </c>
-      <c r="AL63" s="149"/>
-      <c r="AM63" s="149"/>
-      <c r="AN63" s="152"/>
+      <c r="AL63" s="139"/>
+      <c r="AM63" s="139"/>
+      <c r="AN63" s="140"/>
     </row>
     <row r="64" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A64" s="121" t="s">
+      <c r="A64" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="120" t="s">
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="J64" s="25"/>
-      <c r="K64" s="25"/>
-      <c r="L64" s="25"/>
-      <c r="M64" s="25"/>
-      <c r="N64" s="25"/>
-      <c r="O64" s="25"/>
-      <c r="P64" s="25"/>
-      <c r="Q64" s="124" t="s">
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="19"/>
+      <c r="P64" s="19"/>
+      <c r="Q64" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="R64" s="25"/>
-      <c r="S64" s="25"/>
-      <c r="T64" s="25"/>
-      <c r="U64" s="120" t="s">
+      <c r="R64" s="19"/>
+      <c r="S64" s="19"/>
+      <c r="T64" s="19"/>
+      <c r="U64" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="V64" s="25"/>
-      <c r="W64" s="25"/>
-      <c r="X64" s="25"/>
-      <c r="Y64" s="25"/>
-      <c r="Z64" s="25"/>
-      <c r="AA64" s="25"/>
-      <c r="AB64" s="26"/>
-      <c r="AC64" s="143" t="s">
+      <c r="V64" s="19"/>
+      <c r="W64" s="19"/>
+      <c r="X64" s="19"/>
+      <c r="Y64" s="19"/>
+      <c r="Z64" s="19"/>
+      <c r="AA64" s="19"/>
+      <c r="AB64" s="20"/>
+      <c r="AC64" s="127" t="s">
         <v>225</v>
       </c>
-      <c r="AD64" s="19"/>
-      <c r="AE64" s="19"/>
-      <c r="AF64" s="19"/>
-      <c r="AG64" s="19"/>
-      <c r="AH64" s="19"/>
-      <c r="AI64" s="19"/>
-      <c r="AJ64" s="19"/>
-      <c r="AK64" s="145" t="s">
+      <c r="AD64" s="25"/>
+      <c r="AE64" s="25"/>
+      <c r="AF64" s="25"/>
+      <c r="AG64" s="25"/>
+      <c r="AH64" s="25"/>
+      <c r="AI64" s="25"/>
+      <c r="AJ64" s="25"/>
+      <c r="AK64" s="151" t="s">
         <v>219</v>
       </c>
-      <c r="AL64" s="150"/>
-      <c r="AM64" s="150"/>
+      <c r="AL64" s="152"/>
+      <c r="AM64" s="152"/>
       <c r="AN64" s="153"/>
     </row>
     <row r="65" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A65" s="121" t="s">
+      <c r="A65" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="120" t="s">
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="J65" s="25"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="25"/>
-      <c r="M65" s="25"/>
-      <c r="N65" s="25"/>
-      <c r="O65" s="25"/>
-      <c r="P65" s="25"/>
-      <c r="Q65" s="124" t="s">
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="19"/>
+      <c r="O65" s="19"/>
+      <c r="P65" s="19"/>
+      <c r="Q65" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="R65" s="25"/>
-      <c r="S65" s="25"/>
-      <c r="T65" s="25"/>
-      <c r="U65" s="96" t="s">
+      <c r="R65" s="19"/>
+      <c r="S65" s="19"/>
+      <c r="T65" s="19"/>
+      <c r="U65" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="V65" s="23"/>
-      <c r="W65" s="23"/>
-      <c r="X65" s="23"/>
-      <c r="Y65" s="23"/>
-      <c r="Z65" s="23"/>
-      <c r="AA65" s="23"/>
-      <c r="AB65" s="23"/>
-      <c r="AC65" s="23"/>
-      <c r="AD65" s="23"/>
-      <c r="AE65" s="23"/>
-      <c r="AF65" s="23"/>
-      <c r="AG65" s="23"/>
-      <c r="AH65" s="23"/>
-      <c r="AI65" s="23"/>
-      <c r="AJ65" s="23"/>
-      <c r="AK65" s="105" t="s">
+      <c r="V65" s="31"/>
+      <c r="W65" s="31"/>
+      <c r="X65" s="31"/>
+      <c r="Y65" s="31"/>
+      <c r="Z65" s="31"/>
+      <c r="AA65" s="31"/>
+      <c r="AB65" s="31"/>
+      <c r="AC65" s="31"/>
+      <c r="AD65" s="31"/>
+      <c r="AE65" s="31"/>
+      <c r="AF65" s="31"/>
+      <c r="AG65" s="31"/>
+      <c r="AH65" s="31"/>
+      <c r="AI65" s="31"/>
+      <c r="AJ65" s="31"/>
+      <c r="AK65" s="150" t="s">
         <v>45</v>
       </c>
-      <c r="AL65" s="23"/>
-      <c r="AM65" s="23"/>
-      <c r="AN65" s="23"/>
+      <c r="AL65" s="31"/>
+      <c r="AM65" s="31"/>
+      <c r="AN65" s="31"/>
     </row>
     <row r="66" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A66" s="121" t="s">
+      <c r="A66" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="120" t="s">
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="J66" s="25"/>
-      <c r="K66" s="25"/>
-      <c r="L66" s="25"/>
-      <c r="M66" s="25"/>
-      <c r="N66" s="25"/>
-      <c r="O66" s="25"/>
-      <c r="P66" s="25"/>
-      <c r="Q66" s="124" t="s">
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="19"/>
+      <c r="O66" s="19"/>
+      <c r="P66" s="19"/>
+      <c r="Q66" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="R66" s="25"/>
-      <c r="S66" s="25"/>
-      <c r="T66" s="25"/>
-      <c r="U66" s="89" t="s">
+      <c r="R66" s="19"/>
+      <c r="S66" s="19"/>
+      <c r="T66" s="19"/>
+      <c r="U66" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="V66" s="25"/>
-      <c r="W66" s="25"/>
-      <c r="X66" s="25"/>
-      <c r="Y66" s="25"/>
-      <c r="Z66" s="25"/>
-      <c r="AA66" s="25"/>
-      <c r="AB66" s="26"/>
-      <c r="AC66" s="143" t="s">
+      <c r="V66" s="19"/>
+      <c r="W66" s="19"/>
+      <c r="X66" s="19"/>
+      <c r="Y66" s="19"/>
+      <c r="Z66" s="19"/>
+      <c r="AA66" s="19"/>
+      <c r="AB66" s="20"/>
+      <c r="AC66" s="127" t="s">
         <v>226</v>
       </c>
-      <c r="AD66" s="19"/>
-      <c r="AE66" s="19"/>
-      <c r="AF66" s="19"/>
-      <c r="AG66" s="19"/>
-      <c r="AH66" s="19"/>
-      <c r="AI66" s="19"/>
-      <c r="AJ66" s="19"/>
-      <c r="AK66" s="154" t="s">
+      <c r="AD66" s="25"/>
+      <c r="AE66" s="25"/>
+      <c r="AF66" s="25"/>
+      <c r="AG66" s="25"/>
+      <c r="AH66" s="25"/>
+      <c r="AI66" s="25"/>
+      <c r="AJ66" s="25"/>
+      <c r="AK66" s="149" t="s">
         <v>227</v>
       </c>
-      <c r="AL66" s="19"/>
-      <c r="AM66" s="19"/>
-      <c r="AN66" s="19"/>
+      <c r="AL66" s="25"/>
+      <c r="AM66" s="25"/>
+      <c r="AN66" s="25"/>
     </row>
     <row r="67" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A67" s="121" t="s">
+      <c r="A67" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="120" t="s">
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="J67" s="25"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="25"/>
-      <c r="M67" s="25"/>
-      <c r="N67" s="25"/>
-      <c r="O67" s="25"/>
-      <c r="P67" s="25"/>
-      <c r="Q67" s="124" t="s">
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="19"/>
+      <c r="O67" s="19"/>
+      <c r="P67" s="19"/>
+      <c r="Q67" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="R67" s="25"/>
-      <c r="S67" s="25"/>
-      <c r="T67" s="25"/>
-      <c r="U67" s="89"/>
-      <c r="V67" s="25"/>
-      <c r="W67" s="25"/>
-      <c r="X67" s="25"/>
-      <c r="Y67" s="25"/>
-      <c r="Z67" s="25"/>
-      <c r="AA67" s="25"/>
-      <c r="AB67" s="26"/>
-      <c r="AC67" s="94"/>
-      <c r="AD67" s="19"/>
-      <c r="AE67" s="19"/>
-      <c r="AF67" s="19"/>
-      <c r="AG67" s="19"/>
-      <c r="AH67" s="19"/>
-      <c r="AI67" s="19"/>
-      <c r="AJ67" s="19"/>
-      <c r="AK67" s="154"/>
-      <c r="AL67" s="19"/>
-      <c r="AM67" s="19"/>
-      <c r="AN67" s="19"/>
+      <c r="R67" s="19"/>
+      <c r="S67" s="19"/>
+      <c r="T67" s="19"/>
+      <c r="U67" s="124"/>
+      <c r="V67" s="19"/>
+      <c r="W67" s="19"/>
+      <c r="X67" s="19"/>
+      <c r="Y67" s="19"/>
+      <c r="Z67" s="19"/>
+      <c r="AA67" s="19"/>
+      <c r="AB67" s="20"/>
+      <c r="AC67" s="125"/>
+      <c r="AD67" s="25"/>
+      <c r="AE67" s="25"/>
+      <c r="AF67" s="25"/>
+      <c r="AG67" s="25"/>
+      <c r="AH67" s="25"/>
+      <c r="AI67" s="25"/>
+      <c r="AJ67" s="25"/>
+      <c r="AK67" s="149"/>
+      <c r="AL67" s="25"/>
+      <c r="AM67" s="25"/>
+      <c r="AN67" s="25"/>
     </row>
     <row r="68" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A68" s="121" t="s">
+      <c r="A68" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="120" t="s">
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="J68" s="25"/>
-      <c r="K68" s="25"/>
-      <c r="L68" s="25"/>
-      <c r="M68" s="25"/>
-      <c r="N68" s="25"/>
-      <c r="O68" s="25"/>
-      <c r="P68" s="25"/>
-      <c r="Q68" s="124" t="s">
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="19"/>
+      <c r="N68" s="19"/>
+      <c r="O68" s="19"/>
+      <c r="P68" s="19"/>
+      <c r="Q68" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="R68" s="25"/>
-      <c r="S68" s="25"/>
-      <c r="T68" s="25"/>
-      <c r="U68" s="89"/>
-      <c r="V68" s="25"/>
-      <c r="W68" s="25"/>
-      <c r="X68" s="25"/>
-      <c r="Y68" s="25"/>
-      <c r="Z68" s="25"/>
-      <c r="AA68" s="25"/>
-      <c r="AB68" s="26"/>
-      <c r="AC68" s="94"/>
-      <c r="AD68" s="19"/>
-      <c r="AE68" s="19"/>
-      <c r="AF68" s="19"/>
-      <c r="AG68" s="19"/>
-      <c r="AH68" s="19"/>
-      <c r="AI68" s="19"/>
-      <c r="AJ68" s="19"/>
-      <c r="AK68" s="99"/>
-      <c r="AL68" s="19"/>
-      <c r="AM68" s="19"/>
-      <c r="AN68" s="19"/>
+      <c r="R68" s="19"/>
+      <c r="S68" s="19"/>
+      <c r="T68" s="19"/>
+      <c r="U68" s="124"/>
+      <c r="V68" s="19"/>
+      <c r="W68" s="19"/>
+      <c r="X68" s="19"/>
+      <c r="Y68" s="19"/>
+      <c r="Z68" s="19"/>
+      <c r="AA68" s="19"/>
+      <c r="AB68" s="20"/>
+      <c r="AC68" s="125"/>
+      <c r="AD68" s="25"/>
+      <c r="AE68" s="25"/>
+      <c r="AF68" s="25"/>
+      <c r="AG68" s="25"/>
+      <c r="AH68" s="25"/>
+      <c r="AI68" s="25"/>
+      <c r="AJ68" s="25"/>
+      <c r="AK68" s="137"/>
+      <c r="AL68" s="25"/>
+      <c r="AM68" s="25"/>
+      <c r="AN68" s="25"/>
     </row>
     <row r="69" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A69" s="121" t="s">
+      <c r="A69" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="143" t="s">
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="127" t="s">
         <v>182</v>
       </c>
-      <c r="J69" s="19"/>
-      <c r="K69" s="19"/>
-      <c r="L69" s="19"/>
-      <c r="M69" s="19"/>
-      <c r="N69" s="19"/>
-      <c r="O69" s="19"/>
-      <c r="P69" s="48"/>
-      <c r="Q69" s="145" t="s">
+      <c r="J69" s="25"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="25"/>
+      <c r="M69" s="25"/>
+      <c r="N69" s="25"/>
+      <c r="O69" s="25"/>
+      <c r="P69" s="26"/>
+      <c r="Q69" s="151" t="s">
         <v>195</v>
       </c>
-      <c r="R69" s="19"/>
-      <c r="S69" s="19"/>
-      <c r="T69" s="48"/>
-      <c r="U69" s="89"/>
-      <c r="V69" s="25"/>
-      <c r="W69" s="25"/>
-      <c r="X69" s="25"/>
-      <c r="Y69" s="25"/>
-      <c r="Z69" s="25"/>
-      <c r="AA69" s="25"/>
-      <c r="AB69" s="26"/>
-      <c r="AC69" s="94"/>
-      <c r="AD69" s="19"/>
-      <c r="AE69" s="19"/>
-      <c r="AF69" s="19"/>
-      <c r="AG69" s="19"/>
-      <c r="AH69" s="19"/>
-      <c r="AI69" s="19"/>
-      <c r="AJ69" s="19"/>
-      <c r="AK69" s="99"/>
-      <c r="AL69" s="19"/>
-      <c r="AM69" s="19"/>
-      <c r="AN69" s="19"/>
+      <c r="R69" s="25"/>
+      <c r="S69" s="25"/>
+      <c r="T69" s="26"/>
+      <c r="U69" s="124"/>
+      <c r="V69" s="19"/>
+      <c r="W69" s="19"/>
+      <c r="X69" s="19"/>
+      <c r="Y69" s="19"/>
+      <c r="Z69" s="19"/>
+      <c r="AA69" s="19"/>
+      <c r="AB69" s="20"/>
+      <c r="AC69" s="125"/>
+      <c r="AD69" s="25"/>
+      <c r="AE69" s="25"/>
+      <c r="AF69" s="25"/>
+      <c r="AG69" s="25"/>
+      <c r="AH69" s="25"/>
+      <c r="AI69" s="25"/>
+      <c r="AJ69" s="25"/>
+      <c r="AK69" s="137"/>
+      <c r="AL69" s="25"/>
+      <c r="AM69" s="25"/>
+      <c r="AN69" s="25"/>
     </row>
     <row r="70" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A70" s="121" t="s">
+      <c r="A70" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="143" t="s">
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="127" t="s">
         <v>183</v>
       </c>
-      <c r="J70" s="19"/>
-      <c r="K70" s="19"/>
-      <c r="L70" s="19"/>
-      <c r="M70" s="19"/>
-      <c r="N70" s="19"/>
-      <c r="O70" s="19"/>
-      <c r="P70" s="48"/>
-      <c r="Q70" s="145" t="s">
+      <c r="J70" s="25"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="25"/>
+      <c r="M70" s="25"/>
+      <c r="N70" s="25"/>
+      <c r="O70" s="25"/>
+      <c r="P70" s="26"/>
+      <c r="Q70" s="151" t="s">
         <v>196</v>
       </c>
-      <c r="R70" s="19"/>
-      <c r="S70" s="19"/>
-      <c r="T70" s="48"/>
-      <c r="U70" s="89"/>
-      <c r="V70" s="25"/>
-      <c r="W70" s="25"/>
-      <c r="X70" s="25"/>
-      <c r="Y70" s="25"/>
-      <c r="Z70" s="25"/>
-      <c r="AA70" s="25"/>
-      <c r="AB70" s="26"/>
-      <c r="AC70" s="94"/>
-      <c r="AD70" s="19"/>
-      <c r="AE70" s="19"/>
-      <c r="AF70" s="19"/>
-      <c r="AG70" s="19"/>
-      <c r="AH70" s="19"/>
-      <c r="AI70" s="19"/>
-      <c r="AJ70" s="19"/>
-      <c r="AK70" s="99"/>
-      <c r="AL70" s="19"/>
-      <c r="AM70" s="19"/>
-      <c r="AN70" s="19"/>
+      <c r="R70" s="25"/>
+      <c r="S70" s="25"/>
+      <c r="T70" s="26"/>
+      <c r="U70" s="124"/>
+      <c r="V70" s="19"/>
+      <c r="W70" s="19"/>
+      <c r="X70" s="19"/>
+      <c r="Y70" s="19"/>
+      <c r="Z70" s="19"/>
+      <c r="AA70" s="19"/>
+      <c r="AB70" s="20"/>
+      <c r="AC70" s="125"/>
+      <c r="AD70" s="25"/>
+      <c r="AE70" s="25"/>
+      <c r="AF70" s="25"/>
+      <c r="AG70" s="25"/>
+      <c r="AH70" s="25"/>
+      <c r="AI70" s="25"/>
+      <c r="AJ70" s="25"/>
+      <c r="AK70" s="137"/>
+      <c r="AL70" s="25"/>
+      <c r="AM70" s="25"/>
+      <c r="AN70" s="25"/>
     </row>
     <row r="71" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A71" s="121" t="s">
+      <c r="A71" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="26"/>
-      <c r="I71" s="143" t="s">
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="127" t="s">
         <v>184</v>
       </c>
-      <c r="J71" s="19"/>
-      <c r="K71" s="19"/>
-      <c r="L71" s="19"/>
-      <c r="M71" s="19"/>
-      <c r="N71" s="19"/>
-      <c r="O71" s="19"/>
-      <c r="P71" s="48"/>
-      <c r="Q71" s="145" t="s">
+      <c r="J71" s="25"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="25"/>
+      <c r="M71" s="25"/>
+      <c r="N71" s="25"/>
+      <c r="O71" s="25"/>
+      <c r="P71" s="26"/>
+      <c r="Q71" s="151" t="s">
         <v>197</v>
       </c>
-      <c r="R71" s="19"/>
-      <c r="S71" s="19"/>
-      <c r="T71" s="48"/>
-      <c r="U71" s="89"/>
-      <c r="V71" s="25"/>
-      <c r="W71" s="25"/>
-      <c r="X71" s="25"/>
-      <c r="Y71" s="25"/>
-      <c r="Z71" s="25"/>
-      <c r="AA71" s="25"/>
-      <c r="AB71" s="26"/>
-      <c r="AC71" s="94"/>
-      <c r="AD71" s="19"/>
-      <c r="AE71" s="19"/>
-      <c r="AF71" s="19"/>
-      <c r="AG71" s="19"/>
-      <c r="AH71" s="19"/>
-      <c r="AI71" s="19"/>
-      <c r="AJ71" s="19"/>
-      <c r="AK71" s="99"/>
-      <c r="AL71" s="19"/>
-      <c r="AM71" s="19"/>
-      <c r="AN71" s="19"/>
+      <c r="R71" s="25"/>
+      <c r="S71" s="25"/>
+      <c r="T71" s="26"/>
+      <c r="U71" s="124"/>
+      <c r="V71" s="19"/>
+      <c r="W71" s="19"/>
+      <c r="X71" s="19"/>
+      <c r="Y71" s="19"/>
+      <c r="Z71" s="19"/>
+      <c r="AA71" s="19"/>
+      <c r="AB71" s="20"/>
+      <c r="AC71" s="125"/>
+      <c r="AD71" s="25"/>
+      <c r="AE71" s="25"/>
+      <c r="AF71" s="25"/>
+      <c r="AG71" s="25"/>
+      <c r="AH71" s="25"/>
+      <c r="AI71" s="25"/>
+      <c r="AJ71" s="25"/>
+      <c r="AK71" s="137"/>
+      <c r="AL71" s="25"/>
+      <c r="AM71" s="25"/>
+      <c r="AN71" s="25"/>
     </row>
     <row r="72" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A72" s="121" t="s">
+      <c r="A72" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="B72" s="25"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="26"/>
-      <c r="I72" s="143" t="s">
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="127" t="s">
         <v>185</v>
       </c>
-      <c r="J72" s="19"/>
-      <c r="K72" s="19"/>
-      <c r="L72" s="19"/>
-      <c r="M72" s="19"/>
-      <c r="N72" s="19"/>
-      <c r="O72" s="19"/>
-      <c r="P72" s="48"/>
-      <c r="Q72" s="145" t="s">
+      <c r="J72" s="25"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="25"/>
+      <c r="M72" s="25"/>
+      <c r="N72" s="25"/>
+      <c r="O72" s="25"/>
+      <c r="P72" s="26"/>
+      <c r="Q72" s="151" t="s">
         <v>198</v>
       </c>
-      <c r="R72" s="19"/>
-      <c r="S72" s="19"/>
-      <c r="T72" s="48"/>
-      <c r="U72" s="95"/>
-      <c r="V72" s="25"/>
-      <c r="W72" s="25"/>
-      <c r="X72" s="25"/>
-      <c r="Y72" s="25"/>
-      <c r="Z72" s="25"/>
-      <c r="AA72" s="25"/>
-      <c r="AB72" s="26"/>
-      <c r="AC72" s="24"/>
-      <c r="AD72" s="25"/>
-      <c r="AE72" s="25"/>
-      <c r="AF72" s="25"/>
-      <c r="AG72" s="25"/>
-      <c r="AH72" s="25"/>
-      <c r="AI72" s="25"/>
-      <c r="AJ72" s="26"/>
-      <c r="AK72" s="98"/>
-      <c r="AL72" s="25"/>
-      <c r="AM72" s="25"/>
-      <c r="AN72" s="26"/>
+      <c r="R72" s="25"/>
+      <c r="S72" s="25"/>
+      <c r="T72" s="26"/>
+      <c r="U72" s="129"/>
+      <c r="V72" s="19"/>
+      <c r="W72" s="19"/>
+      <c r="X72" s="19"/>
+      <c r="Y72" s="19"/>
+      <c r="Z72" s="19"/>
+      <c r="AA72" s="19"/>
+      <c r="AB72" s="20"/>
+      <c r="AC72" s="128"/>
+      <c r="AD72" s="19"/>
+      <c r="AE72" s="19"/>
+      <c r="AF72" s="19"/>
+      <c r="AG72" s="19"/>
+      <c r="AH72" s="19"/>
+      <c r="AI72" s="19"/>
+      <c r="AJ72" s="20"/>
+      <c r="AK72" s="136"/>
+      <c r="AL72" s="19"/>
+      <c r="AM72" s="19"/>
+      <c r="AN72" s="20"/>
     </row>
     <row r="73" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A73" s="121" t="s">
+      <c r="A73" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="B73" s="25"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="26"/>
-      <c r="I73" s="143" t="s">
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="127" t="s">
         <v>186</v>
       </c>
-      <c r="J73" s="19"/>
-      <c r="K73" s="19"/>
-      <c r="L73" s="19"/>
-      <c r="M73" s="19"/>
-      <c r="N73" s="19"/>
-      <c r="O73" s="19"/>
-      <c r="P73" s="48"/>
-      <c r="Q73" s="145" t="s">
+      <c r="J73" s="25"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="25"/>
+      <c r="M73" s="25"/>
+      <c r="N73" s="25"/>
+      <c r="O73" s="25"/>
+      <c r="P73" s="26"/>
+      <c r="Q73" s="151" t="s">
         <v>199</v>
       </c>
-      <c r="R73" s="19"/>
-      <c r="S73" s="19"/>
-      <c r="T73" s="48"/>
-      <c r="U73" s="90"/>
-      <c r="V73" s="25"/>
-      <c r="W73" s="25"/>
-      <c r="X73" s="25"/>
-      <c r="Y73" s="25"/>
-      <c r="Z73" s="25"/>
-      <c r="AA73" s="25"/>
-      <c r="AB73" s="26"/>
-      <c r="AC73" s="24"/>
-      <c r="AD73" s="25"/>
-      <c r="AE73" s="25"/>
-      <c r="AF73" s="25"/>
-      <c r="AG73" s="25"/>
-      <c r="AH73" s="25"/>
-      <c r="AI73" s="25"/>
-      <c r="AJ73" s="26"/>
-      <c r="AK73" s="98"/>
-      <c r="AL73" s="25"/>
-      <c r="AM73" s="25"/>
-      <c r="AN73" s="26"/>
+      <c r="R73" s="25"/>
+      <c r="S73" s="25"/>
+      <c r="T73" s="26"/>
+      <c r="U73" s="42"/>
+      <c r="V73" s="19"/>
+      <c r="W73" s="19"/>
+      <c r="X73" s="19"/>
+      <c r="Y73" s="19"/>
+      <c r="Z73" s="19"/>
+      <c r="AA73" s="19"/>
+      <c r="AB73" s="20"/>
+      <c r="AC73" s="128"/>
+      <c r="AD73" s="19"/>
+      <c r="AE73" s="19"/>
+      <c r="AF73" s="19"/>
+      <c r="AG73" s="19"/>
+      <c r="AH73" s="19"/>
+      <c r="AI73" s="19"/>
+      <c r="AJ73" s="20"/>
+      <c r="AK73" s="136"/>
+      <c r="AL73" s="19"/>
+      <c r="AM73" s="19"/>
+      <c r="AN73" s="20"/>
     </row>
     <row r="74" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A74" s="121" t="s">
+      <c r="A74" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="26"/>
-      <c r="I74" s="120" t="s">
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="J74" s="25"/>
-      <c r="K74" s="25"/>
-      <c r="L74" s="25"/>
-      <c r="M74" s="25"/>
-      <c r="N74" s="25"/>
-      <c r="O74" s="25"/>
-      <c r="P74" s="26"/>
-      <c r="Q74" s="124" t="s">
+      <c r="J74" s="19"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="19"/>
+      <c r="M74" s="19"/>
+      <c r="N74" s="19"/>
+      <c r="O74" s="19"/>
+      <c r="P74" s="20"/>
+      <c r="Q74" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="R74" s="25"/>
-      <c r="S74" s="25"/>
-      <c r="T74" s="26"/>
-      <c r="U74" s="90"/>
-      <c r="V74" s="25"/>
-      <c r="W74" s="25"/>
-      <c r="X74" s="25"/>
-      <c r="Y74" s="25"/>
-      <c r="Z74" s="25"/>
-      <c r="AA74" s="25"/>
-      <c r="AB74" s="26"/>
-      <c r="AC74" s="24" t="s">
+      <c r="R74" s="19"/>
+      <c r="S74" s="19"/>
+      <c r="T74" s="20"/>
+      <c r="U74" s="42"/>
+      <c r="V74" s="19"/>
+      <c r="W74" s="19"/>
+      <c r="X74" s="19"/>
+      <c r="Y74" s="19"/>
+      <c r="Z74" s="19"/>
+      <c r="AA74" s="19"/>
+      <c r="AB74" s="20"/>
+      <c r="AC74" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="AD74" s="25"/>
-      <c r="AE74" s="25"/>
-      <c r="AF74" s="25"/>
-      <c r="AG74" s="25"/>
-      <c r="AH74" s="25"/>
-      <c r="AI74" s="25"/>
-      <c r="AJ74" s="26"/>
-      <c r="AK74" s="89"/>
-      <c r="AL74" s="25"/>
-      <c r="AM74" s="25"/>
-      <c r="AN74" s="26"/>
+      <c r="AD74" s="19"/>
+      <c r="AE74" s="19"/>
+      <c r="AF74" s="19"/>
+      <c r="AG74" s="19"/>
+      <c r="AH74" s="19"/>
+      <c r="AI74" s="19"/>
+      <c r="AJ74" s="20"/>
+      <c r="AK74" s="124"/>
+      <c r="AL74" s="19"/>
+      <c r="AM74" s="19"/>
+      <c r="AN74" s="20"/>
     </row>
     <row r="75" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A75" s="142" t="s">
+      <c r="A75" s="143" t="s">
         <v>175</v>
       </c>
-      <c r="B75" s="35"/>
-      <c r="C75" s="35"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="101"/>
-      <c r="I75" s="144" t="s">
+      <c r="B75" s="50"/>
+      <c r="C75" s="50"/>
+      <c r="D75" s="50"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="144"/>
+      <c r="I75" s="145" t="s">
         <v>188</v>
       </c>
-      <c r="J75" s="35"/>
-      <c r="K75" s="35"/>
-      <c r="L75" s="35"/>
-      <c r="M75" s="35"/>
-      <c r="N75" s="35"/>
-      <c r="O75" s="35"/>
-      <c r="P75" s="101"/>
+      <c r="J75" s="50"/>
+      <c r="K75" s="50"/>
+      <c r="L75" s="50"/>
+      <c r="M75" s="50"/>
+      <c r="N75" s="50"/>
+      <c r="O75" s="50"/>
+      <c r="P75" s="144"/>
       <c r="Q75" s="146" t="s">
         <v>201</v>
       </c>
-      <c r="R75" s="35"/>
-      <c r="S75" s="35"/>
-      <c r="T75" s="101"/>
-      <c r="U75" s="92"/>
-      <c r="V75" s="25"/>
-      <c r="W75" s="25"/>
-      <c r="X75" s="25"/>
-      <c r="Y75" s="25"/>
-      <c r="Z75" s="25"/>
-      <c r="AA75" s="25"/>
-      <c r="AB75" s="25"/>
-      <c r="AC75" s="89" t="s">
+      <c r="R75" s="50"/>
+      <c r="S75" s="50"/>
+      <c r="T75" s="144"/>
+      <c r="U75" s="44"/>
+      <c r="V75" s="19"/>
+      <c r="W75" s="19"/>
+      <c r="X75" s="19"/>
+      <c r="Y75" s="19"/>
+      <c r="Z75" s="19"/>
+      <c r="AA75" s="19"/>
+      <c r="AB75" s="19"/>
+      <c r="AC75" s="124" t="s">
         <v>49</v>
       </c>
-      <c r="AD75" s="25"/>
-      <c r="AE75" s="25"/>
-      <c r="AF75" s="25"/>
-      <c r="AG75" s="25"/>
-      <c r="AH75" s="25"/>
-      <c r="AI75" s="25"/>
-      <c r="AJ75" s="26"/>
-      <c r="AK75" s="89"/>
-      <c r="AL75" s="25"/>
-      <c r="AM75" s="25"/>
-      <c r="AN75" s="26"/>
+      <c r="AD75" s="19"/>
+      <c r="AE75" s="19"/>
+      <c r="AF75" s="19"/>
+      <c r="AG75" s="19"/>
+      <c r="AH75" s="19"/>
+      <c r="AI75" s="19"/>
+      <c r="AJ75" s="20"/>
+      <c r="AK75" s="124"/>
+      <c r="AL75" s="19"/>
+      <c r="AM75" s="19"/>
+      <c r="AN75" s="20"/>
     </row>
     <row r="76" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A76" s="102" t="s">
+      <c r="A76" s="147" t="s">
         <v>68</v>
       </c>
-      <c r="B76" s="87"/>
-      <c r="C76" s="87"/>
-      <c r="D76" s="87"/>
-      <c r="E76" s="87"/>
-      <c r="F76" s="87"/>
-      <c r="G76" s="87"/>
-      <c r="H76" s="87"/>
-      <c r="I76" s="87"/>
-      <c r="J76" s="87"/>
-      <c r="K76" s="87"/>
-      <c r="L76" s="87"/>
-      <c r="M76" s="87"/>
-      <c r="N76" s="87"/>
-      <c r="O76" s="87"/>
-      <c r="P76" s="87"/>
-      <c r="Q76" s="87"/>
-      <c r="R76" s="87"/>
-      <c r="S76" s="87"/>
-      <c r="T76" s="87"/>
-      <c r="U76" s="87"/>
-      <c r="V76" s="87"/>
-      <c r="W76" s="87"/>
-      <c r="X76" s="87"/>
-      <c r="Y76" s="87"/>
-      <c r="Z76" s="87"/>
-      <c r="AA76" s="87"/>
-      <c r="AB76" s="87"/>
-      <c r="AC76" s="87"/>
-      <c r="AD76" s="87"/>
-      <c r="AE76" s="87"/>
-      <c r="AF76" s="87"/>
-      <c r="AG76" s="87"/>
-      <c r="AH76" s="87"/>
-      <c r="AI76" s="87"/>
-      <c r="AJ76" s="87"/>
-      <c r="AK76" s="87"/>
-      <c r="AL76" s="87"/>
-      <c r="AM76" s="87"/>
-      <c r="AN76" s="87"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="39"/>
+      <c r="J76" s="39"/>
+      <c r="K76" s="39"/>
+      <c r="L76" s="39"/>
+      <c r="M76" s="39"/>
+      <c r="N76" s="39"/>
+      <c r="O76" s="39"/>
+      <c r="P76" s="39"/>
+      <c r="Q76" s="39"/>
+      <c r="R76" s="39"/>
+      <c r="S76" s="39"/>
+      <c r="T76" s="39"/>
+      <c r="U76" s="39"/>
+      <c r="V76" s="39"/>
+      <c r="W76" s="39"/>
+      <c r="X76" s="39"/>
+      <c r="Y76" s="39"/>
+      <c r="Z76" s="39"/>
+      <c r="AA76" s="39"/>
+      <c r="AB76" s="39"/>
+      <c r="AC76" s="39"/>
+      <c r="AD76" s="39"/>
+      <c r="AE76" s="39"/>
+      <c r="AF76" s="39"/>
+      <c r="AG76" s="39"/>
+      <c r="AH76" s="39"/>
+      <c r="AI76" s="39"/>
+      <c r="AJ76" s="39"/>
+      <c r="AK76" s="39"/>
+      <c r="AL76" s="39"/>
+      <c r="AM76" s="39"/>
+      <c r="AN76" s="39"/>
     </row>
     <row r="77" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.8">
-      <c r="A77" s="103" t="s">
+      <c r="A77" s="148" t="s">
         <v>49</v>
       </c>
-      <c r="B77" s="104"/>
-      <c r="C77" s="104"/>
-      <c r="D77" s="104"/>
-      <c r="E77" s="104"/>
-      <c r="F77" s="104"/>
-      <c r="G77" s="104"/>
-      <c r="H77" s="104"/>
-      <c r="I77" s="104"/>
-      <c r="J77" s="104"/>
-      <c r="K77" s="104"/>
-      <c r="L77" s="104"/>
-      <c r="M77" s="104"/>
-      <c r="N77" s="104"/>
-      <c r="O77" s="104"/>
-      <c r="P77" s="104"/>
-      <c r="Q77" s="104"/>
-      <c r="R77" s="104"/>
-      <c r="S77" s="104"/>
-      <c r="T77" s="104"/>
-      <c r="U77" s="104"/>
-      <c r="V77" s="104"/>
-      <c r="W77" s="104"/>
-      <c r="X77" s="104"/>
-      <c r="Y77" s="104"/>
-      <c r="Z77" s="104"/>
-      <c r="AA77" s="104"/>
-      <c r="AB77" s="104"/>
-      <c r="AC77" s="104"/>
-      <c r="AD77" s="104"/>
-      <c r="AE77" s="104"/>
-      <c r="AF77" s="104"/>
-      <c r="AG77" s="104"/>
-      <c r="AH77" s="104"/>
-      <c r="AI77" s="104"/>
-      <c r="AJ77" s="104"/>
-      <c r="AK77" s="104"/>
-      <c r="AL77" s="104"/>
-      <c r="AM77" s="104"/>
-      <c r="AN77" s="104"/>
+      <c r="B77" s="114"/>
+      <c r="C77" s="114"/>
+      <c r="D77" s="114"/>
+      <c r="E77" s="114"/>
+      <c r="F77" s="114"/>
+      <c r="G77" s="114"/>
+      <c r="H77" s="114"/>
+      <c r="I77" s="114"/>
+      <c r="J77" s="114"/>
+      <c r="K77" s="114"/>
+      <c r="L77" s="114"/>
+      <c r="M77" s="114"/>
+      <c r="N77" s="114"/>
+      <c r="O77" s="114"/>
+      <c r="P77" s="114"/>
+      <c r="Q77" s="114"/>
+      <c r="R77" s="114"/>
+      <c r="S77" s="114"/>
+      <c r="T77" s="114"/>
+      <c r="U77" s="114"/>
+      <c r="V77" s="114"/>
+      <c r="W77" s="114"/>
+      <c r="X77" s="114"/>
+      <c r="Y77" s="114"/>
+      <c r="Z77" s="114"/>
+      <c r="AA77" s="114"/>
+      <c r="AB77" s="114"/>
+      <c r="AC77" s="114"/>
+      <c r="AD77" s="114"/>
+      <c r="AE77" s="114"/>
+      <c r="AF77" s="114"/>
+      <c r="AG77" s="114"/>
+      <c r="AH77" s="114"/>
+      <c r="AI77" s="114"/>
+      <c r="AJ77" s="114"/>
+      <c r="AK77" s="114"/>
+      <c r="AL77" s="114"/>
+      <c r="AM77" s="114"/>
+      <c r="AN77" s="114"/>
     </row>
     <row r="78" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A78" s="13"/>
@@ -43886,15 +43886,39 @@
     </row>
   </sheetData>
   <mergeCells count="342">
+    <mergeCell ref="Q58:T58"/>
+    <mergeCell ref="U44:AB44"/>
+    <mergeCell ref="U49:AB49"/>
+    <mergeCell ref="I43:P43"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="G35:M35"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="V34:AA34"/>
+    <mergeCell ref="E26:T26"/>
+    <mergeCell ref="E25:T25"/>
+    <mergeCell ref="E29:T29"/>
+    <mergeCell ref="Y28:AN28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="K23:P23"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="Q57:T57"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="I53:P53"/>
+    <mergeCell ref="Q55:T55"/>
     <mergeCell ref="A54:H54"/>
     <mergeCell ref="A55:H55"/>
     <mergeCell ref="T6:V9"/>
     <mergeCell ref="W9:W10"/>
-    <mergeCell ref="R5:X5"/>
     <mergeCell ref="C15:U16"/>
     <mergeCell ref="C17:U18"/>
     <mergeCell ref="A51:H51"/>
-    <mergeCell ref="Q58:T58"/>
+    <mergeCell ref="U59:AB59"/>
+    <mergeCell ref="A58:H58"/>
+    <mergeCell ref="U56:AB56"/>
+    <mergeCell ref="U45:AB45"/>
+    <mergeCell ref="U48:AB48"/>
     <mergeCell ref="AC42:AJ42"/>
     <mergeCell ref="U42:AB42"/>
     <mergeCell ref="I60:P60"/>
@@ -43914,19 +43938,6 @@
     <mergeCell ref="A44:H44"/>
     <mergeCell ref="A43:H43"/>
     <mergeCell ref="I44:P44"/>
-    <mergeCell ref="Q57:T57"/>
-    <mergeCell ref="A53:H53"/>
-    <mergeCell ref="A52:H52"/>
-    <mergeCell ref="I53:P53"/>
-    <mergeCell ref="Q55:T55"/>
-    <mergeCell ref="AC63:AJ63"/>
-    <mergeCell ref="A45:H45"/>
-    <mergeCell ref="Q46:T46"/>
-    <mergeCell ref="Q47:T47"/>
-    <mergeCell ref="Q50:T50"/>
-    <mergeCell ref="Q49:T49"/>
-    <mergeCell ref="Q48:T48"/>
-    <mergeCell ref="A47:H47"/>
     <mergeCell ref="A46:H46"/>
     <mergeCell ref="A49:H49"/>
     <mergeCell ref="A48:H48"/>
@@ -43937,15 +43948,6 @@
     <mergeCell ref="AC50:AJ50"/>
     <mergeCell ref="A56:H56"/>
     <mergeCell ref="Q56:T56"/>
-    <mergeCell ref="AC59:AJ59"/>
-    <mergeCell ref="U59:AB59"/>
-    <mergeCell ref="A58:H58"/>
-    <mergeCell ref="U56:AB56"/>
-    <mergeCell ref="U44:AB44"/>
-    <mergeCell ref="U45:AB45"/>
-    <mergeCell ref="U48:AB48"/>
-    <mergeCell ref="U49:AB49"/>
-    <mergeCell ref="AC52:AJ52"/>
     <mergeCell ref="U47:AJ47"/>
     <mergeCell ref="AC45:AJ45"/>
     <mergeCell ref="AC46:AJ46"/>
@@ -43963,6 +43965,13 @@
     <mergeCell ref="Q54:T54"/>
     <mergeCell ref="Q52:T52"/>
     <mergeCell ref="Q53:T53"/>
+    <mergeCell ref="A45:H45"/>
+    <mergeCell ref="Q46:T46"/>
+    <mergeCell ref="Q47:T47"/>
+    <mergeCell ref="Q50:T50"/>
+    <mergeCell ref="Q49:T49"/>
+    <mergeCell ref="Q48:T48"/>
+    <mergeCell ref="A47:H47"/>
     <mergeCell ref="Q72:T72"/>
     <mergeCell ref="I63:P63"/>
     <mergeCell ref="I61:P61"/>
@@ -44015,6 +44024,7 @@
     <mergeCell ref="A64:H64"/>
     <mergeCell ref="A65:H65"/>
     <mergeCell ref="AK64:AN64"/>
+    <mergeCell ref="AC63:AJ63"/>
     <mergeCell ref="AK74:AN74"/>
     <mergeCell ref="A74:H74"/>
     <mergeCell ref="A75:H75"/>
@@ -44038,6 +44048,7 @@
     <mergeCell ref="AK70:AN70"/>
     <mergeCell ref="AK71:AN71"/>
     <mergeCell ref="AK68:AN68"/>
+    <mergeCell ref="AC59:AJ59"/>
     <mergeCell ref="AK45:AN45"/>
     <mergeCell ref="AK46:AN46"/>
     <mergeCell ref="AK51:AN51"/>
@@ -44061,10 +44072,7 @@
     <mergeCell ref="AC56:AJ56"/>
     <mergeCell ref="U54:AJ54"/>
     <mergeCell ref="AC49:AJ49"/>
-    <mergeCell ref="I43:P43"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="U73:AB73"/>
-    <mergeCell ref="U74:AB74"/>
+    <mergeCell ref="AC52:AJ52"/>
     <mergeCell ref="U75:AB75"/>
     <mergeCell ref="AC75:AJ75"/>
     <mergeCell ref="AC73:AJ73"/>
@@ -44083,6 +44091,8 @@
     <mergeCell ref="U69:AB69"/>
     <mergeCell ref="AC66:AJ66"/>
     <mergeCell ref="AC74:AJ74"/>
+    <mergeCell ref="U73:AB73"/>
+    <mergeCell ref="U74:AB74"/>
     <mergeCell ref="A72:H72"/>
     <mergeCell ref="A66:H66"/>
     <mergeCell ref="K20:P20"/>
@@ -44107,17 +44117,6 @@
     <mergeCell ref="U25:X25"/>
     <mergeCell ref="N35:U35"/>
     <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:M35"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="V34:AA34"/>
-    <mergeCell ref="E26:T26"/>
-    <mergeCell ref="E25:T25"/>
-    <mergeCell ref="E29:T29"/>
-    <mergeCell ref="Y28:AN28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="K23:P23"/>
-    <mergeCell ref="W23:Z23"/>
     <mergeCell ref="S23:V23"/>
     <mergeCell ref="AA23:AN23"/>
     <mergeCell ref="B23:J23"/>
@@ -44130,6 +44129,11 @@
     <mergeCell ref="AE19:AG19"/>
     <mergeCell ref="Q20:R20"/>
     <mergeCell ref="S20:V20"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="Y26:AN26"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="U27:X27"/>
     <mergeCell ref="AH15:AN18"/>
     <mergeCell ref="AE17:AG18"/>
     <mergeCell ref="AE15:AG16"/>
@@ -44139,6 +44143,8 @@
     <mergeCell ref="E5:J5"/>
     <mergeCell ref="W6:AD6"/>
     <mergeCell ref="AF5:AN5"/>
+    <mergeCell ref="V15:AA16"/>
+    <mergeCell ref="R5:X5"/>
     <mergeCell ref="AF4:AN4"/>
     <mergeCell ref="AF3:AN3"/>
     <mergeCell ref="AB14:AD14"/>
@@ -44150,6 +44156,19 @@
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="L1:AD4"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="R12:X12"/>
+    <mergeCell ref="W7:AD8"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="V14:AA14"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E6:J6"/>
     <mergeCell ref="A17:B18"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="L7:S8"/>
@@ -44160,14 +44179,8 @@
     <mergeCell ref="AF12:AN12"/>
     <mergeCell ref="AF11:AN11"/>
     <mergeCell ref="V17:AA18"/>
-    <mergeCell ref="E3:J3"/>
-    <mergeCell ref="L1:AD4"/>
-    <mergeCell ref="E4:J4"/>
     <mergeCell ref="AB15:AD16"/>
     <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="C14:U14"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B16"/>
@@ -44180,19 +44193,6 @@
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="R11:X11"/>
-    <mergeCell ref="R12:X12"/>
-    <mergeCell ref="W7:AD8"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="V15:AA16"/>
-    <mergeCell ref="V14:AA14"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A30:AN30"/>
-    <mergeCell ref="A31:AN32"/>
-    <mergeCell ref="A33:F33"/>
     <mergeCell ref="A34:F34"/>
     <mergeCell ref="G34:M34"/>
     <mergeCell ref="N34:U34"/>
@@ -44201,9 +44201,6 @@
     <mergeCell ref="AB33:AG33"/>
     <mergeCell ref="G33:M33"/>
     <mergeCell ref="N33:U33"/>
-    <mergeCell ref="Y26:AN26"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="U27:X27"/>
     <mergeCell ref="AH33:AM33"/>
     <mergeCell ref="AH34:AM34"/>
     <mergeCell ref="AH35:AM35"/>
@@ -44228,6 +44225,9 @@
     <mergeCell ref="U43:AB43"/>
     <mergeCell ref="Q41:T41"/>
     <mergeCell ref="I41:P41"/>
+    <mergeCell ref="A30:AN30"/>
+    <mergeCell ref="A31:AN32"/>
+    <mergeCell ref="A33:F33"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
